--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-permission-range.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="240">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-04-26</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2034,52 +2034,67 @@
     <t>hpfm_permission_rule-8</t>
   </si>
   <si>
+    <t>HIAM.ASSIGNED_MEMBER_ROLE</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>平台预制角色已分配用户屏蔽</t>
+  </si>
+  <si>
+    <t>请勿删除!</t>
+  </si>
+  <si>
+    <t>exists (  select 'x' from iam_role ir where ir.id = role_id and (ir.h_tenant_id = #{organizationId} or  exists (    select 'x' from iam_user iu where iu.id = member_id and iu.organization_id = #{organizationId})) )</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-9</t>
+  </si>
+  <si>
+    <t>PREFIX.ADMIN</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>平台治理服务数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_admin</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-10</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_MESSAGE</t>
+  </si>
+  <si>
+    <t>消息服务数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_message</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-11</t>
+  </si>
+  <si>
     <t>PREFIX.HZERO_PLATFORM</t>
   </si>
   <si>
-    <t>PREFIX</t>
-  </si>
-  <si>
     <t>平台数据库前缀</t>
   </si>
   <si>
     <t>hzero_platform</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-9</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_MESSAGE</t>
-  </si>
-  <si>
-    <t>消息服务数据库前缀</t>
-  </si>
-  <si>
-    <t>请勿删除!</t>
-  </si>
-  <si>
-    <t>hzero_message</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-10</t>
-  </si>
-  <si>
-    <t>PREFIX.ADMIN</t>
-  </si>
-  <si>
-    <t>平台治理服务数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_admin</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-11</t>
+    <t>hpfm_permission_rule-12</t>
   </si>
   <si>
     <t>PREFIX.INTERFACE</t>
@@ -2091,16 +2106,16 @@
     <t>hzero_interface</t>
   </si>
   <si>
-    <t>hpfm_permission_rule-12</t>
-  </si>
-  <si>
-    <t>PREFIX.HALT_ALERT</t>
-  </si>
-  <si>
-    <t>预警平台规则</t>
-  </si>
-  <si>
-    <t>hzero_alert</t>
+    <t>hpfm_permission_rule-13</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_RULE_ENGINE</t>
+  </si>
+  <si>
+    <t>规则引擎服务前缀</t>
+  </si>
+  <si>
+    <t>hzero_rule_engine</t>
   </si>
   <si>
     <t>屏蔽范围</t>
@@ -2124,274 +2139,280 @@
     <t>#service_name</t>
   </si>
   <si>
-    <t>hpfm_permission_range-15</t>
+    <t>hpfm_permission_range-16</t>
   </si>
   <si>
     <t>hpfm_company</t>
   </si>
   <si>
-    <t>hpfm_permission_range-16</t>
+    <t>hpfm_permission_range-17</t>
   </si>
   <si>
     <t>hpfm_group</t>
   </si>
   <si>
-    <t>hpfm_permission_range-17</t>
+    <t>hpfm_permission_range-18</t>
   </si>
   <si>
     <t>hpfm_tenant</t>
   </si>
   <si>
-    <t>hpfm_permission_range-18</t>
+    <t>hpfm_permission_range-19</t>
   </si>
   <si>
     <t>iam_role</t>
   </si>
   <si>
-    <t>hpfm_permission_range-19</t>
+    <t>hpfm_permission_range-20</t>
   </si>
   <si>
     <t>iam_user</t>
   </si>
   <si>
-    <t>hpfm_permission_range-20</t>
+    <t>hpfm_permission_range-21</t>
   </si>
   <si>
     <t>oauth_client</t>
   </si>
   <si>
-    <t>hpfm_permission_range-21</t>
+    <t>hpfm_permission_range-22</t>
   </si>
   <si>
     <t>hpfm_datasource</t>
   </si>
   <si>
-    <t>hpfm_permission_range-22</t>
+    <t>hpfm_permission_range-23</t>
   </si>
   <si>
     <t>hpfm_rule_script</t>
   </si>
   <si>
-    <t>hpfm_permission_range-23</t>
+    <t>hpfm_permission_range-24</t>
   </si>
   <si>
     <t>hiam_tenant_access</t>
   </si>
   <si>
-    <t>hpfm_permission_range-24</t>
+    <t>hpfm_permission_range-25</t>
+  </si>
+  <si>
+    <t>iam_member_role</t>
+  </si>
+  <si>
+    <t>org.hzero.iam.infra.mapper.HiamUserMapper.selectRoleUsers</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-26</t>
+  </si>
+  <si>
+    <t>hmsg_message_template</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-27</t>
+  </si>
+  <si>
+    <t>hpfm_server</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-28</t>
+  </si>
+  <si>
+    <t>hpfm_server_cluster</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-29</t>
+  </si>
+  <si>
+    <t>hiam_role_auth_data</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-30</t>
+  </si>
+  <si>
+    <t>hiam_role_auth_data_line</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-31</t>
+  </si>
+  <si>
+    <t>hiam_role_authority_line</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-32</t>
+  </si>
+  <si>
+    <t>hiam_user_authority</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-33</t>
+  </si>
+  <si>
+    <t>hiam_user_authority_line</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-34</t>
+  </si>
+  <si>
+    <t>iam_permission</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-35</t>
+  </si>
+  <si>
+    <t>hiam_doc_type</t>
+  </si>
+  <si>
+    <t>请勿删除</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-36</t>
+  </si>
+  <si>
+    <t>hpfm_tenant_tl</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-37</t>
+  </si>
+  <si>
+    <t>hmsg_email_server</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-38</t>
+  </si>
+  <si>
+    <t>hpfm_uom</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-39</t>
+  </si>
+  <si>
+    <t>hpfm_employee</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-40</t>
+  </si>
+  <si>
+    <t>hpfm_employee_assign</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-41</t>
+  </si>
+  <si>
+    <t>hpfm_employee_user</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-42</t>
+  </si>
+  <si>
+    <t>hpfm_lov_value</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-43</t>
+  </si>
+  <si>
+    <t>hpfm_lov_value_tl</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-44</t>
+  </si>
+  <si>
+    <t>hmsg_message</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-45</t>
+  </si>
+  <si>
+    <t>hmsg_message_receiver</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-46</t>
+  </si>
+  <si>
+    <t>hpfm_lov</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-47</t>
+  </si>
+  <si>
+    <t>fd_language</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-48</t>
+  </si>
+  <si>
+    <t>hiam_user_group_assign</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-49</t>
+  </si>
+  <si>
+    <t>hadm_service</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-50</t>
+  </si>
+  <si>
+    <t>hitf_interface_server</t>
+  </si>
+  <si>
+    <t>hzero-platform</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-51</t>
   </si>
   <si>
     <t>hiam_user_group</t>
   </si>
   <si>
-    <t>hpfm_permission_range-25</t>
+    <t>hpfm_permission_range-52</t>
   </si>
   <si>
     <t>hpfm_unit</t>
   </si>
   <si>
-    <t>hpfm_permission_range-26</t>
-  </si>
-  <si>
-    <t>hmsg_message_template</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-27</t>
-  </si>
-  <si>
-    <t>hpfm_server</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-28</t>
-  </si>
-  <si>
-    <t>hpfm_server_cluster</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-29</t>
-  </si>
-  <si>
-    <t>hiam_role_auth_data</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-30</t>
-  </si>
-  <si>
-    <t>hiam_role_auth_data_line</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-31</t>
-  </si>
-  <si>
-    <t>hiam_role_authority_line</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-32</t>
-  </si>
-  <si>
-    <t>hiam_user_authority</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-33</t>
-  </si>
-  <si>
-    <t>hiam_user_authority_line</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-34</t>
-  </si>
-  <si>
-    <t>iam_permission</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-35</t>
-  </si>
-  <si>
-    <t>hpfm_tenant_tl</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-36</t>
-  </si>
-  <si>
-    <t>hmsg_email_server</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-37</t>
-  </si>
-  <si>
-    <t>hpfm_uom</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-38</t>
-  </si>
-  <si>
-    <t>hpfm_employee</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-39</t>
-  </si>
-  <si>
-    <t>hpfm_employee_assign</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-40</t>
-  </si>
-  <si>
-    <t>hpfm_employee_user</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-41</t>
-  </si>
-  <si>
-    <t>hpfm_lov_value</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-42</t>
-  </si>
-  <si>
-    <t>hpfm_lov_value_tl</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-43</t>
-  </si>
-  <si>
-    <t>hmsg_message</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-44</t>
-  </si>
-  <si>
-    <t>hmsg_message_receiver</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-45</t>
-  </si>
-  <si>
-    <t>hpfm_lov</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-46</t>
-  </si>
-  <si>
-    <t>fd_language</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-47</t>
-  </si>
-  <si>
-    <t>hiam_user_group_assign</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-48</t>
-  </si>
-  <si>
-    <t>hadm_service</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-49</t>
-  </si>
-  <si>
-    <t>hitf_interface_server</t>
-  </si>
-  <si>
-    <t>hzero-platform</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-50</t>
-  </si>
-  <si>
-    <t>iam_member_role</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-51</t>
-  </si>
-  <si>
-    <t>halt_alert</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-52</t>
-  </si>
-  <si>
-    <t>halt_alert_source</t>
-  </si>
-  <si>
     <t>hpfm_permission_range-53</t>
   </si>
   <si>
-    <t>halt_alert_source_mapping</t>
+    <t>hpfm_lov_view_header</t>
   </si>
   <si>
     <t>hpfm_permission_range-54</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header</t>
+    <t>hpfm_lov_view_header_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-55</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header_tl</t>
+    <t>hpfm_hr_sync_employee</t>
   </si>
   <si>
     <t>hpfm_permission_range-56</t>
   </si>
   <si>
-    <t>hpfm_hr_sync_employee</t>
-  </si>
-  <si>
     <t>hpfm_permission_range-57</t>
   </si>
   <si>
-    <t>hiam_doc_type</t>
-  </si>
-  <si>
-    <t>请勿删除</t>
+    <t>hiam_doc_type_auth_dim</t>
   </si>
   <si>
     <t>hpfm_permission_range-58</t>
   </si>
   <si>
-    <t>hiam_doc_type_auth_dim</t>
+    <t>hres_rule</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-59</t>
+  </si>
+  <si>
+    <t>hiam_role_rel</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-60</t>
+  </si>
+  <si>
+    <t>hpfm_code_rule</t>
   </si>
   <si>
     <t>屏蔽范围规则关系</t>
@@ -2409,12 +2430,6 @@
     <t>#rule_id</t>
   </si>
   <si>
-    <t>hpfm_permission_rel-61</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-62</t>
-  </si>
-  <si>
     <t>hpfm_permission_rel-63</t>
   </si>
   <si>
@@ -2539,6 +2554,15 @@
   </si>
   <si>
     <t>hpfm_permission_rel-104</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-105</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-106</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-107</t>
   </si>
 </sst>
 </file>
@@ -3581,7 +3605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3663,1417 +3687,1447 @@
       <c r="H8" t="s">
         <v>65</v>
       </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
         <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s" s="43">
-        <v>87</v>
-      </c>
-      <c r="E14" t="s" s="44">
-        <v>88</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s" s="45">
-        <v>90</v>
-      </c>
-      <c r="H14" t="s" s="46">
+      <c r="C15" t="s">
         <v>91</v>
       </c>
-      <c r="I14" t="s">
+      <c r="D15" t="s" s="43">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s" s="44">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s" s="45">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s" s="46">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
         <v>58</v>
       </c>
-      <c r="J14" t="s" s="47">
+      <c r="J15" t="s" s="47">
         <v>60</v>
       </c>
-      <c r="K14" t="s" s="48">
-        <v>92</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K15" t="s" s="48">
+        <v>97</v>
+      </c>
+      <c r="L15" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="H25" t="s">
+        <v>118</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I27" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G31" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I37" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G39" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I39" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G47" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="I49" t="s">
+        <v>66</v>
       </c>
       <c r="J49" t="s">
-        <v>67</v>
-      </c>
-      <c r="K49" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="L49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J50" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="K50" t="s">
+        <v>170</v>
       </c>
       <c r="L50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>172</v>
+      </c>
+      <c r="I51" t="s">
+        <v>66</v>
       </c>
       <c r="J51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+      <c r="I52" t="s">
+        <v>66</v>
       </c>
       <c r="J52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="J54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="J55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="J56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G57" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="I57" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="J57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>182</v>
-      </c>
-      <c r="I58" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L58" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="E59" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" t="s">
+        <v>187</v>
+      </c>
+      <c r="J59" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s">
+      <c r="E60" t="s">
+        <v>188</v>
+      </c>
+      <c r="F60" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I60" t="s">
+        <v>66</v>
+      </c>
+      <c r="J60" t="s">
+        <v>68</v>
+      </c>
+      <c r="L60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
         <v>50</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>51</v>
       </c>
-      <c r="C60" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" t="s" s="49">
-        <v>184</v>
-      </c>
-      <c r="E60" t="s" s="50">
-        <v>185</v>
-      </c>
-      <c r="F60" t="s" s="51">
-        <v>186</v>
-      </c>
-      <c r="G60" t="s" s="52">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>188</v>
-      </c>
-      <c r="F61">
-        <f>屏蔽规则!$E$15</f>
-      </c>
-      <c r="G61">
-        <f>屏蔽规则!$E$8</f>
-      </c>
-    </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>189</v>
-      </c>
-      <c r="F62">
-        <f>屏蔽规则!$E$16</f>
-      </c>
-      <c r="G62">
-        <f>屏蔽规则!$E$8</f>
+      <c r="C62" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" t="s" s="49">
+        <v>191</v>
+      </c>
+      <c r="E62" t="s" s="50">
+        <v>192</v>
+      </c>
+      <c r="F62" t="s" s="51">
+        <v>193</v>
+      </c>
+      <c r="G62" t="s" s="52">
+        <v>194</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F63">
-        <f>屏蔽规则!$E$17</f>
+        <f>屏蔽规则!$E$16</f>
       </c>
       <c r="G63">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F64">
-        <f>屏蔽规则!$E$18</f>
+        <f>屏蔽规则!$E$17</f>
       </c>
       <c r="G64">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F65">
-        <f>屏蔽规则!$E$19</f>
+        <f>屏蔽规则!$E$18</f>
       </c>
       <c r="G65">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F66">
-        <f>屏蔽规则!$E$20</f>
+        <f>屏蔽规则!$E$19</f>
       </c>
       <c r="G66">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F67">
-        <f>屏蔽规则!$E$21</f>
+        <f>屏蔽规则!$E$20</f>
       </c>
       <c r="G67">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F68">
-        <f>屏蔽规则!$E$22</f>
+        <f>屏蔽规则!$E$21</f>
       </c>
       <c r="G68">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F69">
-        <f>屏蔽规则!$E$23</f>
+        <f>屏蔽规则!$E$22</f>
       </c>
       <c r="G69">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F70">
-        <f>屏蔽规则!$E$24</f>
+        <f>屏蔽规则!$E$23</f>
       </c>
       <c r="G70">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F71">
-        <f>屏蔽规则!$E$25</f>
+        <f>屏蔽规则!$E$24</f>
       </c>
       <c r="G71">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F72">
-        <f>屏蔽规则!$E$26</f>
+        <f>屏蔽规则!$E$25</f>
       </c>
       <c r="G72">
-        <f>屏蔽规则!$E$9</f>
+        <f>屏蔽规则!$E$8</f>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F73">
-        <f>屏蔽规则!$E$27</f>
+        <f>屏蔽规则!$E$26</f>
       </c>
       <c r="G73">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F74">
-        <f>屏蔽规则!$E$28</f>
+        <f>屏蔽规则!$E$27</f>
       </c>
       <c r="G74">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F75">
-        <f>屏蔽规则!$E$29</f>
+        <f>屏蔽规则!$E$28</f>
       </c>
       <c r="G75">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F76">
-        <f>屏蔽规则!$E$30</f>
+        <f>屏蔽规则!$E$29</f>
       </c>
       <c r="G76">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F77">
-        <f>屏蔽规则!$E$31</f>
+        <f>屏蔽规则!$E$30</f>
       </c>
       <c r="G77">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F78">
-        <f>屏蔽规则!$E$32</f>
+        <f>屏蔽规则!$E$31</f>
       </c>
       <c r="G78">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F79">
-        <f>屏蔽规则!$E$33</f>
+        <f>屏蔽规则!$E$32</f>
       </c>
       <c r="G79">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F80">
-        <f>屏蔽规则!$E$34</f>
+        <f>屏蔽规则!$E$33</f>
       </c>
       <c r="G80">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F81">
-        <f>屏蔽规则!$E$35</f>
+        <f>屏蔽规则!$E$34</f>
       </c>
       <c r="G81">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F82">
-        <f>屏蔽规则!$E$36</f>
+        <f>屏蔽规则!$E$35</f>
       </c>
       <c r="G82">
-        <f>屏蔽规则!$E$9</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F83">
-        <f>屏蔽规则!$E$37</f>
+        <f>屏蔽规则!$E$36</f>
       </c>
       <c r="G83">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F84">
-        <f>屏蔽规则!$E$38</f>
+        <f>屏蔽规则!$E$37</f>
       </c>
       <c r="G84">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F85">
-        <f>屏蔽规则!$E$39</f>
+        <f>屏蔽规则!$E$38</f>
       </c>
       <c r="G85">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F86">
-        <f>屏蔽规则!$E$40</f>
+        <f>屏蔽规则!$E$39</f>
       </c>
       <c r="G86">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F87">
-        <f>屏蔽规则!$E$41</f>
+        <f>屏蔽规则!$E$40</f>
       </c>
       <c r="G87">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F88">
-        <f>屏蔽规则!$E$42</f>
+        <f>屏蔽规则!$E$41</f>
       </c>
       <c r="G88">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F89">
-        <f>屏蔽规则!$E$43</f>
+        <f>屏蔽规则!$E$42</f>
       </c>
       <c r="G89">
-        <f>屏蔽规则!$E$9</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F90">
-        <f>屏蔽规则!$E$44</f>
+        <f>屏蔽规则!$E$43</f>
       </c>
       <c r="G90">
-        <f>屏蔽规则!$E$9</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F91">
-        <f>屏蔽规则!$E$45</f>
+        <f>屏蔽规则!$E$44</f>
       </c>
       <c r="G91">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F92">
-        <f>屏蔽规则!$E$46</f>
+        <f>屏蔽规则!$E$45</f>
       </c>
       <c r="G92">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F93">
-        <f>屏蔽规则!$E$47</f>
+        <f>屏蔽规则!$E$46</f>
       </c>
       <c r="G93">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F94">
-        <f>屏蔽规则!$E$48</f>
+        <f>屏蔽规则!$E$47</f>
       </c>
       <c r="G94">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F95">
-        <f>屏蔽规则!$E$49</f>
+        <f>屏蔽规则!$E$48</f>
       </c>
       <c r="G95">
         <f>屏蔽规则!$E$11</f>
@@ -5081,21 +5135,21 @@
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F96">
-        <f>屏蔽规则!$E$50</f>
+        <f>屏蔽规则!$E$49</f>
       </c>
       <c r="G96">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$9</f>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F97">
-        <f>屏蔽规则!$E$51</f>
+        <f>屏蔽规则!$E$50</f>
       </c>
       <c r="G97">
         <f>屏蔽规则!$E$12</f>
@@ -5103,79 +5157,112 @@
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F98">
-        <f>屏蔽规则!$E$52</f>
+        <f>屏蔽规则!$E$51</f>
       </c>
       <c r="G98">
-        <f>屏蔽规则!$E$12</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F99">
-        <f>屏蔽规则!$E$53</f>
+        <f>屏蔽规则!$E$52</f>
       </c>
       <c r="G99">
-        <f>屏蔽规则!$E$12</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F100">
-        <f>屏蔽规则!$E$54</f>
+        <f>屏蔽规则!$E$53</f>
       </c>
       <c r="G100">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F101">
-        <f>屏蔽规则!$E$55</f>
+        <f>屏蔽规则!$E$54</f>
       </c>
       <c r="G101">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F102">
-        <f>屏蔽规则!$E$56</f>
+        <f>屏蔽规则!$E$55</f>
       </c>
       <c r="G102">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F103">
-        <f>屏蔽规则!$E$57</f>
+        <f>屏蔽规则!$E$56</f>
       </c>
       <c r="G103">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F104">
+        <f>屏蔽规则!$E$57</f>
+      </c>
+      <c r="G104">
+        <f>屏蔽规则!$E$11</f>
+      </c>
+    </row>
+    <row r="105">
+      <c r="E105" t="s">
+        <v>237</v>
+      </c>
+      <c r="F105">
         <f>屏蔽规则!$E$58</f>
       </c>
-      <c r="G104">
-        <f>屏蔽规则!$E$8</f>
+      <c r="G105">
+        <f>屏蔽规则!$E$13</f>
+      </c>
+    </row>
+    <row r="106">
+      <c r="E106" t="s">
+        <v>238</v>
+      </c>
+      <c r="F106">
+        <f>屏蔽规则!$E$59</f>
+      </c>
+      <c r="G106">
+        <f>屏蔽规则!$E$11</f>
+      </c>
+    </row>
+    <row r="107">
+      <c r="E107" t="s">
+        <v>239</v>
+      </c>
+      <c r="F107">
+        <f>屏蔽规则!$E$60</f>
+      </c>
+      <c r="G107">
+        <f>屏蔽规则!$E$11</f>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-permission-range.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="283">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2034,6 +2034,27 @@
     <t>hpfm_permission_rule-8</t>
   </si>
   <si>
+    <t>PREFIX.HZERO_PLATFORM</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>平台数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_platform</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-9</t>
+  </si>
+  <si>
     <t>HIAM.ASSIGNED_MEMBER_ROLE</t>
   </si>
   <si>
@@ -2049,51 +2070,30 @@
     <t>exists (  select 'x' from iam_role ir where ir.id = role_id and (ir.h_tenant_id = #{organizationId} or  exists (    select 'x' from iam_user iu where iu.id = member_id and iu.organization_id = #{organizationId})) )</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-9</t>
+    <t>hpfm_permission_rule-10</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_MESSAGE</t>
+  </si>
+  <si>
+    <t>消息服务数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_message</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-11</t>
   </si>
   <si>
     <t>PREFIX.ADMIN</t>
   </si>
   <si>
-    <t>PREFIX</t>
-  </si>
-  <si>
     <t>平台治理服务数据库前缀</t>
   </si>
   <si>
     <t>hzero_admin</t>
   </si>
   <si>
-    <t>hpfm_permission_rule-10</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_MESSAGE</t>
-  </si>
-  <si>
-    <t>消息服务数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_message</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-11</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_PLATFORM</t>
-  </si>
-  <si>
-    <t>平台数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_platform</t>
-  </si>
-  <si>
     <t>hpfm_permission_rule-12</t>
   </si>
   <si>
@@ -2118,6 +2118,67 @@
     <t>hzero_rule_engine</t>
   </si>
   <si>
+    <t>hpfm_permission_rule-14</t>
+  </si>
+  <si>
+    <t>DT008702650000</t>
+  </si>
+  <si>
+    <t>测试23</t>
+  </si>
+  <si>
+    <t>由单据权限[TEST.23]维度[ROLE]自动生成</t>
+  </si>
+  <si>
+    <t>&lt;bind name="roleMergeIdList" value="@io.choerodon.core.oauth.DetailsHelper@getUserDetails().roleMergeIds()" /&gt; 
+&lt;bind name="roleAuthHeader" value="@org.hzero.boot.platform.data.permission.util.DocRedisUtils@checkRoleAuthHeaderAssign(87, &amp;quot;BIZ&amp;quot;, roleMergeIdList)" /&gt; 
+&lt;bind name="roleAuthLine" value="@org.hzero.boot.platform.data.permission.util.DocRedisUtils@checkRoleAuthLineAssign(87, &amp;quot;BIZ&amp;quot;, &amp;quot;ROLE&amp;quot;, roleMergeIdList)" /&gt; 
+&lt;bind name="userAuthAssign" value="@org.hzero.boot.platform.data.permission.util.DocRedisUtils@checkUserAuthAssign(tenantId, &amp;quot;ROLE&amp;quot;, userId)" /&gt; 
+&lt;choose&gt; 
+    &lt;when test="!roleAuthHeader"&gt; 
+           (EXISTS ( 
+				SELECT 1  
+				FROM hiam_role_authority hra  
+				JOIN hiam_doc_type hdt ON (hdt.doc_type_id = hra.auth_doc_type_id AND hdt.enabled_flag = 1 AND hdt.doc_type_id = 87)  
+				JOIN hiam_doc_type_auth_dim hdtad ON hdtad.doc_type_id = hdt.doc_type_id AND hdtad.auth_type_code = 'ROLE' 
+				WHERE hra.auth_scope_code = 'BIZ'  
+				AND hra.role_id IN 
+               &lt;foreach collection="roleMergeIdList" open="(" separator="," item="roleMergeId" close=")"&gt;
+                               #{roleMergeId}               
+&lt;/foreach&gt;)) 
+    &lt;/when&gt; 
+    &lt;when test="!roleAuthLine"&gt; 
+	     1=1 
+	 &lt;/when&gt; 
+	 &lt;when test="!userAuthAssign"&gt; 
+	     (EXISTS ( 
+		      SELECT 1  
+		      FROM hiam_role_auth_data hrad  
+		      LEFT JOIN hiam_role_auth_data_line hradl ON hrad.auth_data_id = hradl.auth_data_id  
+		      WHERE hrad.tenant_id = #{tenantId}  
+		      AND hrad.role_id IN 
+             &lt;foreach collection="roleMergeIdList" open="(" separator="," item="roleMergeId" close=")"&gt;
+                             #{roleMergeId}             
+&lt;/foreach&gt; 
+		      AND hrad.authority_type_code = 'ROLE' 
+		      AND (hrad.include_all_flag = 1 OR hradl.data_id = ${tableAlias}.2))) 
+	 &lt;/when&gt; 
+	 &lt;when test="userAuthAssign"&gt; 
+        (EXISTS ( 
+            SELECT 1  
+            FROM hiam_user_authority hua1  
+            LEFT JOIN hiam_user_authority_line hual1 ON hua1.authority_id = hual1.authority_id  
+            WHERE hua1.tenant_id = #{tenantId} 
+            AND hua1.user_id = #{userId} 
+            AND hua1.authority_type_code = 'ROLE'  
+            AND (hua1.include_all_flag = 1 OR hual1.data_id = ${tableAlias}.2))) 
+	 &lt;/when&gt; 
+	 &lt;otherwise&gt; 
+        1=2 
+	 &lt;/otherwise&gt; 
+&lt;/choose&gt;</t>
+  </si>
+  <si>
     <t>屏蔽范围</t>
   </si>
   <si>
@@ -2139,61 +2200,61 @@
     <t>#service_name</t>
   </si>
   <si>
-    <t>hpfm_permission_range-16</t>
+    <t>hpfm_permission_range-17</t>
   </si>
   <si>
     <t>hpfm_company</t>
   </si>
   <si>
-    <t>hpfm_permission_range-17</t>
+    <t>hpfm_permission_range-18</t>
   </si>
   <si>
     <t>hpfm_group</t>
   </si>
   <si>
-    <t>hpfm_permission_range-18</t>
+    <t>hpfm_permission_range-19</t>
   </si>
   <si>
     <t>hpfm_tenant</t>
   </si>
   <si>
-    <t>hpfm_permission_range-19</t>
+    <t>hpfm_permission_range-20</t>
   </si>
   <si>
     <t>iam_role</t>
   </si>
   <si>
-    <t>hpfm_permission_range-20</t>
+    <t>hpfm_permission_range-21</t>
   </si>
   <si>
     <t>iam_user</t>
   </si>
   <si>
-    <t>hpfm_permission_range-21</t>
+    <t>hpfm_permission_range-22</t>
   </si>
   <si>
     <t>oauth_client</t>
   </si>
   <si>
-    <t>hpfm_permission_range-22</t>
+    <t>hpfm_permission_range-23</t>
   </si>
   <si>
     <t>hpfm_datasource</t>
   </si>
   <si>
-    <t>hpfm_permission_range-23</t>
+    <t>hpfm_permission_range-24</t>
   </si>
   <si>
     <t>hpfm_rule_script</t>
   </si>
   <si>
-    <t>hpfm_permission_range-24</t>
+    <t>hpfm_permission_range-25</t>
   </si>
   <si>
     <t>hiam_tenant_access</t>
   </si>
   <si>
-    <t>hpfm_permission_range-25</t>
+    <t>hpfm_permission_range-26</t>
   </si>
   <si>
     <t>iam_member_role</t>
@@ -2202,61 +2263,61 @@
     <t>org.hzero.iam.infra.mapper.HiamUserMapper.selectRoleUsers</t>
   </si>
   <si>
-    <t>hpfm_permission_range-26</t>
+    <t>hpfm_permission_range-27</t>
   </si>
   <si>
     <t>hmsg_message_template</t>
   </si>
   <si>
-    <t>hpfm_permission_range-27</t>
+    <t>hpfm_permission_range-28</t>
   </si>
   <si>
     <t>hpfm_server</t>
   </si>
   <si>
-    <t>hpfm_permission_range-28</t>
+    <t>hpfm_permission_range-29</t>
   </si>
   <si>
     <t>hpfm_server_cluster</t>
   </si>
   <si>
-    <t>hpfm_permission_range-29</t>
+    <t>hpfm_permission_range-30</t>
   </si>
   <si>
     <t>hiam_role_auth_data</t>
   </si>
   <si>
-    <t>hpfm_permission_range-30</t>
+    <t>hpfm_permission_range-31</t>
   </si>
   <si>
     <t>hiam_role_auth_data_line</t>
   </si>
   <si>
-    <t>hpfm_permission_range-31</t>
+    <t>hpfm_permission_range-32</t>
   </si>
   <si>
     <t>hiam_role_authority_line</t>
   </si>
   <si>
-    <t>hpfm_permission_range-32</t>
+    <t>hpfm_permission_range-33</t>
   </si>
   <si>
     <t>hiam_user_authority</t>
   </si>
   <si>
-    <t>hpfm_permission_range-33</t>
+    <t>hpfm_permission_range-34</t>
   </si>
   <si>
     <t>hiam_user_authority_line</t>
   </si>
   <si>
-    <t>hpfm_permission_range-34</t>
+    <t>hpfm_permission_range-35</t>
   </si>
   <si>
     <t>iam_permission</t>
   </si>
   <si>
-    <t>hpfm_permission_range-35</t>
+    <t>hpfm_permission_range-36</t>
   </si>
   <si>
     <t>hiam_doc_type</t>
@@ -2265,91 +2326,91 @@
     <t>请勿删除</t>
   </si>
   <si>
-    <t>hpfm_permission_range-36</t>
+    <t>hpfm_permission_range-37</t>
   </si>
   <si>
     <t>hpfm_tenant_tl</t>
   </si>
   <si>
-    <t>hpfm_permission_range-37</t>
+    <t>hpfm_permission_range-38</t>
   </si>
   <si>
     <t>hmsg_email_server</t>
   </si>
   <si>
-    <t>hpfm_permission_range-38</t>
+    <t>hpfm_permission_range-39</t>
   </si>
   <si>
     <t>hpfm_uom</t>
   </si>
   <si>
-    <t>hpfm_permission_range-39</t>
+    <t>hpfm_permission_range-40</t>
   </si>
   <si>
     <t>hpfm_employee</t>
   </si>
   <si>
-    <t>hpfm_permission_range-40</t>
+    <t>hpfm_permission_range-41</t>
   </si>
   <si>
     <t>hpfm_employee_assign</t>
   </si>
   <si>
-    <t>hpfm_permission_range-41</t>
+    <t>hpfm_permission_range-42</t>
   </si>
   <si>
     <t>hpfm_employee_user</t>
   </si>
   <si>
-    <t>hpfm_permission_range-42</t>
+    <t>hpfm_permission_range-43</t>
   </si>
   <si>
     <t>hpfm_lov_value</t>
   </si>
   <si>
-    <t>hpfm_permission_range-43</t>
+    <t>hpfm_permission_range-44</t>
   </si>
   <si>
     <t>hpfm_lov_value_tl</t>
   </si>
   <si>
-    <t>hpfm_permission_range-44</t>
+    <t>hpfm_permission_range-45</t>
   </si>
   <si>
     <t>hmsg_message</t>
   </si>
   <si>
-    <t>hpfm_permission_range-45</t>
+    <t>hpfm_permission_range-46</t>
   </si>
   <si>
     <t>hmsg_message_receiver</t>
   </si>
   <si>
-    <t>hpfm_permission_range-46</t>
+    <t>hpfm_permission_range-47</t>
   </si>
   <si>
     <t>hpfm_lov</t>
   </si>
   <si>
-    <t>hpfm_permission_range-47</t>
+    <t>hpfm_permission_range-48</t>
   </si>
   <si>
     <t>fd_language</t>
   </si>
   <si>
-    <t>hpfm_permission_range-48</t>
+    <t>hpfm_permission_range-49</t>
   </si>
   <si>
     <t>hiam_user_group_assign</t>
   </si>
   <si>
-    <t>hpfm_permission_range-49</t>
+    <t>hpfm_permission_range-50</t>
   </si>
   <si>
     <t>hadm_service</t>
   </si>
   <si>
-    <t>hpfm_permission_range-50</t>
+    <t>hpfm_permission_range-51</t>
   </si>
   <si>
     <t>hitf_interface_server</t>
@@ -2358,63 +2419,162 @@
     <t>hzero-platform</t>
   </si>
   <si>
-    <t>hpfm_permission_range-51</t>
+    <t>hpfm_permission_range-52</t>
   </si>
   <si>
     <t>hiam_user_group</t>
   </si>
   <si>
-    <t>hpfm_permission_range-52</t>
+    <t>hpfm_permission_range-53</t>
   </si>
   <si>
     <t>hpfm_unit</t>
   </si>
   <si>
-    <t>hpfm_permission_range-53</t>
+    <t>hpfm_permission_range-54</t>
   </si>
   <si>
     <t>hpfm_lov_view_header</t>
   </si>
   <si>
-    <t>hpfm_permission_range-54</t>
+    <t>hpfm_permission_range-55</t>
   </si>
   <si>
     <t>hpfm_lov_view_header_tl</t>
   </si>
   <si>
-    <t>hpfm_permission_range-55</t>
+    <t>hpfm_permission_range-56</t>
   </si>
   <si>
     <t>hpfm_hr_sync_employee</t>
   </si>
   <si>
-    <t>hpfm_permission_range-56</t>
-  </si>
-  <si>
     <t>hpfm_permission_range-57</t>
   </si>
   <si>
+    <t>hpfm_permission_range-58</t>
+  </si>
+  <si>
     <t>hiam_doc_type_auth_dim</t>
   </si>
   <si>
-    <t>hpfm_permission_range-58</t>
+    <t>hpfm_permission_range-59</t>
   </si>
   <si>
     <t>hres_rule</t>
   </si>
   <si>
-    <t>hpfm_permission_range-59</t>
+    <t>hpfm_permission_range-60</t>
   </si>
   <si>
     <t>hiam_role_rel</t>
   </si>
   <si>
-    <t>hpfm_permission_range-60</t>
+    <t>hpfm_permission_range-61</t>
   </si>
   <si>
     <t>hpfm_code_rule</t>
   </si>
   <si>
+    <t>hpfm_permission_range-62</t>
+  </si>
+  <si>
+    <t>biz_order</t>
+  </si>
+  <si>
+    <t>由单据权限[TEST-ZC]维度[COMPANY]自动生成</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-63</t>
+  </si>
+  <si>
+    <t>由单据权限[TEST-ZC]维度[LOV]自动生成</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-64</t>
+  </si>
+  <si>
+    <t>hmsg_template_server</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-65</t>
+  </si>
+  <si>
+    <t>hmsg_receiver_type</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-66</t>
+  </si>
+  <si>
+    <t>hpfm_country</t>
+  </si>
+  <si>
+    <t>由单据权限[COUNTRY]维度[MIJI]自动生成</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-67</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>由单据权限[HPFM.LOV]维度[LOV]自动生成</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-68</t>
+  </si>
+  <si>
+    <t>234356433</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-69</t>
+  </si>
+  <si>
+    <t>1234trgfedw</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-70</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-71</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-72</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-73</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-74</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-75</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-76</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-77</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-78</t>
+  </si>
+  <si>
+    <t>由单据权限[TEST-ZC]维度[TSET-ZC]自动生成</t>
+  </si>
+  <si>
     <t>屏蔽范围规则关系</t>
   </si>
   <si>
@@ -2430,58 +2590,7 @@
     <t>#rule_id</t>
   </si>
   <si>
-    <t>hpfm_permission_rel-63</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-64</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-65</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-66</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-67</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-68</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-69</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-70</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-71</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-72</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-73</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-74</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-75</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-76</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-77</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-78</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-79</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-80</t>
+    <t>editable_flag</t>
   </si>
   <si>
     <t>hpfm_permission_rel-81</t>
@@ -2563,6 +2672,72 @@
   </si>
   <si>
     <t>hpfm_permission_rel-107</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-108</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-109</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-110</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-111</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-112</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-113</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-114</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-115</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-116</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-117</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-118</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-119</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-120</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-121</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-122</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-123</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-124</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-125</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-126</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-127</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-128</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-129</t>
   </si>
 </sst>
 </file>
@@ -3605,7 +3780,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3687,43 +3862,40 @@
       <c r="H8" t="s">
         <v>65</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>66</v>
       </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>71</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>72</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>73</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
       </c>
       <c r="J9" t="s">
         <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -3734,22 +3906,22 @@
         <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
         <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
         <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -3760,19 +3932,22 @@
         <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
+      <c r="I11" t="s">
+        <v>73</v>
+      </c>
       <c r="J11" t="s">
         <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -3783,22 +3958,22 @@
         <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
         <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
         <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -3809,7 +3984,7 @@
         <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
         <v>89</v>
@@ -3818,1451 +3993,2068 @@
         <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" t="s" s="43">
-        <v>92</v>
-      </c>
-      <c r="E15" t="s" s="44">
-        <v>93</v>
-      </c>
-      <c r="F15" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" t="s" s="45">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s" s="46">
+      <c r="C16" t="s">
         <v>96</v>
       </c>
-      <c r="I15" t="s">
+      <c r="D16" t="s" s="43">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s" s="44">
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s" s="45">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s" s="46">
+        <v>101</v>
+      </c>
+      <c r="I16" t="s">
         <v>58</v>
       </c>
-      <c r="J15" t="s" s="47">
+      <c r="J16" t="s" s="47">
         <v>60</v>
       </c>
-      <c r="K15" t="s" s="48">
-        <v>97</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="K16" t="s" s="48">
+        <v>102</v>
+      </c>
+      <c r="L16" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="J35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G39" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G40" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I47" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G48" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I48" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I49" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
-      </c>
-      <c r="K50" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="L50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>172</v>
-      </c>
-      <c r="I51" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="K51" t="s">
+        <v>175</v>
       </c>
       <c r="L51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G52" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I52" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="I53" t="s">
+        <v>73</v>
       </c>
       <c r="J53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G56" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="J56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G57" t="s">
-        <v>183</v>
-      </c>
-      <c r="I57" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G58" t="s">
-        <v>185</v>
+        <v>188</v>
+      </c>
+      <c r="I58" t="s">
+        <v>144</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G59" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G60" t="s">
-        <v>189</v>
-      </c>
-      <c r="I60" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="J60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L60" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="E61" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" t="s">
+        <v>194</v>
+      </c>
+      <c r="I61" t="s">
+        <v>73</v>
+      </c>
+      <c r="J61" t="s">
+        <v>67</v>
+      </c>
+      <c r="L61" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" t="s" s="49">
-        <v>191</v>
-      </c>
-      <c r="E62" t="s" s="50">
-        <v>192</v>
-      </c>
-      <c r="F62" t="s" s="51">
-        <v>193</v>
-      </c>
-      <c r="G62" t="s" s="52">
-        <v>194</v>
+      <c r="E62" t="s">
+        <v>195</v>
+      </c>
+      <c r="F62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" t="s">
+        <v>196</v>
+      </c>
+      <c r="I62" t="s">
+        <v>197</v>
+      </c>
+      <c r="J62" t="s">
+        <v>67</v>
+      </c>
+      <c r="K62" t="s">
+        <v>175</v>
+      </c>
+      <c r="L62" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
-        <v>195</v>
-      </c>
-      <c r="F63">
-        <f>屏蔽规则!$E$16</f>
-      </c>
-      <c r="G63">
-        <f>屏蔽规则!$E$11</f>
+        <v>198</v>
+      </c>
+      <c r="F63" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" t="s">
+        <v>166</v>
+      </c>
+      <c r="I63" t="s">
+        <v>199</v>
+      </c>
+      <c r="J63" t="s">
+        <v>67</v>
+      </c>
+      <c r="K63" t="s">
+        <v>175</v>
+      </c>
+      <c r="L63" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
-        <v>196</v>
-      </c>
-      <c r="F64">
-        <f>屏蔽规则!$E$17</f>
-      </c>
-      <c r="G64">
-        <f>屏蔽规则!$E$11</f>
+        <v>200</v>
+      </c>
+      <c r="F64" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" t="s">
+        <v>201</v>
+      </c>
+      <c r="J64" t="s">
+        <v>67</v>
+      </c>
+      <c r="L64" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>197</v>
-      </c>
-      <c r="F65">
-        <f>屏蔽规则!$E$18</f>
-      </c>
-      <c r="G65">
-        <f>屏蔽规则!$E$11</f>
+        <v>202</v>
+      </c>
+      <c r="F65" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" t="s">
+        <v>203</v>
+      </c>
+      <c r="J65" t="s">
+        <v>67</v>
+      </c>
+      <c r="L65" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>198</v>
-      </c>
-      <c r="F66">
-        <f>屏蔽规则!$E$19</f>
-      </c>
-      <c r="G66">
-        <f>屏蔽规则!$E$11</f>
+        <v>204</v>
+      </c>
+      <c r="F66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" t="s">
+        <v>205</v>
+      </c>
+      <c r="I66" t="s">
+        <v>206</v>
+      </c>
+      <c r="J66" t="s">
+        <v>67</v>
+      </c>
+      <c r="K66" t="s">
+        <v>175</v>
+      </c>
+      <c r="L66" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>199</v>
-      </c>
-      <c r="F67">
-        <f>屏蔽规则!$E$20</f>
-      </c>
-      <c r="G67">
-        <f>屏蔽规则!$E$11</f>
+        <v>207</v>
+      </c>
+      <c r="F67" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" t="s">
+        <v>208</v>
+      </c>
+      <c r="I67" t="s">
+        <v>209</v>
+      </c>
+      <c r="J67" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67" t="s">
+        <v>175</v>
+      </c>
+      <c r="L67" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>200</v>
-      </c>
-      <c r="F68">
-        <f>屏蔽规则!$E$21</f>
-      </c>
-      <c r="G68">
-        <f>屏蔽规则!$E$11</f>
+        <v>210</v>
+      </c>
+      <c r="F68" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" t="s">
+        <v>211</v>
+      </c>
+      <c r="J68" t="s">
+        <v>67</v>
+      </c>
+      <c r="L68" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
-        <v>201</v>
-      </c>
-      <c r="F69">
-        <f>屏蔽规则!$E$22</f>
-      </c>
-      <c r="G69">
-        <f>屏蔽规则!$E$11</f>
+        <v>212</v>
+      </c>
+      <c r="F69" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" t="s">
+        <v>213</v>
+      </c>
+      <c r="J69" t="s">
+        <v>67</v>
+      </c>
+      <c r="L69" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="70">
       <c r="E70" t="s">
-        <v>202</v>
-      </c>
-      <c r="F70">
-        <f>屏蔽规则!$E$23</f>
-      </c>
-      <c r="G70">
-        <f>屏蔽规则!$E$11</f>
+        <v>214</v>
+      </c>
+      <c r="F70" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70" t="s">
+        <v>216</v>
+      </c>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+      <c r="J70" t="s">
+        <v>67</v>
+      </c>
+      <c r="K70" t="s">
+        <v>175</v>
+      </c>
+      <c r="L70" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>203</v>
-      </c>
-      <c r="F71">
-        <f>屏蔽规则!$E$24</f>
-      </c>
-      <c r="G71">
-        <f>屏蔽规则!$E$11</f>
+        <v>217</v>
+      </c>
+      <c r="F71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H71" t="s">
+        <v>218</v>
+      </c>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+      <c r="J71" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71" t="s">
+        <v>175</v>
+      </c>
+      <c r="L71" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>204</v>
-      </c>
-      <c r="F72">
-        <f>屏蔽规则!$E$25</f>
-      </c>
-      <c r="G72">
-        <f>屏蔽规则!$E$8</f>
+        <v>219</v>
+      </c>
+      <c r="F72" t="s">
+        <v>67</v>
+      </c>
+      <c r="G72" t="s">
+        <v>166</v>
+      </c>
+      <c r="H72" t="s">
+        <v>216</v>
+      </c>
+      <c r="I72" t="s">
+        <v>94</v>
+      </c>
+      <c r="J72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K72" t="s">
+        <v>175</v>
+      </c>
+      <c r="L72" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>205</v>
-      </c>
-      <c r="F73">
-        <f>屏蔽规则!$E$26</f>
-      </c>
-      <c r="G73">
-        <f>屏蔽规则!$E$10</f>
+        <v>220</v>
+      </c>
+      <c r="F73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" t="s">
+        <v>166</v>
+      </c>
+      <c r="H73" t="s">
+        <v>218</v>
+      </c>
+      <c r="I73" t="s">
+        <v>94</v>
+      </c>
+      <c r="J73" t="s">
+        <v>67</v>
+      </c>
+      <c r="K73" t="s">
+        <v>175</v>
+      </c>
+      <c r="L73" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>206</v>
-      </c>
-      <c r="F74">
-        <f>屏蔽规则!$E$27</f>
-      </c>
-      <c r="G74">
-        <f>屏蔽规则!$E$11</f>
+        <v>221</v>
+      </c>
+      <c r="F74" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" t="s">
+        <v>222</v>
+      </c>
+      <c r="H74" t="s">
+        <v>216</v>
+      </c>
+      <c r="I74" t="s">
+        <v>94</v>
+      </c>
+      <c r="J74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K74" t="s">
+        <v>175</v>
+      </c>
+      <c r="L74" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>207</v>
-      </c>
-      <c r="F75">
-        <f>屏蔽规则!$E$28</f>
-      </c>
-      <c r="G75">
-        <f>屏蔽规则!$E$11</f>
+        <v>223</v>
+      </c>
+      <c r="F75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" t="s">
+        <v>222</v>
+      </c>
+      <c r="H75" t="s">
+        <v>218</v>
+      </c>
+      <c r="I75" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" t="s">
+        <v>67</v>
+      </c>
+      <c r="K75" t="s">
+        <v>175</v>
+      </c>
+      <c r="L75" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>208</v>
-      </c>
-      <c r="F76">
-        <f>屏蔽规则!$E$29</f>
-      </c>
-      <c r="G76">
-        <f>屏蔽规则!$E$11</f>
+        <v>224</v>
+      </c>
+      <c r="F76" t="s">
+        <v>67</v>
+      </c>
+      <c r="G76" t="s">
+        <v>196</v>
+      </c>
+      <c r="H76" t="s">
+        <v>222</v>
+      </c>
+      <c r="I76" t="s">
+        <v>197</v>
+      </c>
+      <c r="J76" t="s">
+        <v>67</v>
+      </c>
+      <c r="K76" t="s">
+        <v>175</v>
+      </c>
+      <c r="L76" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>209</v>
-      </c>
-      <c r="F77">
-        <f>屏蔽规则!$E$30</f>
-      </c>
-      <c r="G77">
-        <f>屏蔽规则!$E$11</f>
+        <v>225</v>
+      </c>
+      <c r="F77" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" t="s">
+        <v>166</v>
+      </c>
+      <c r="H77" t="s">
+        <v>222</v>
+      </c>
+      <c r="I77" t="s">
+        <v>199</v>
+      </c>
+      <c r="J77" t="s">
+        <v>67</v>
+      </c>
+      <c r="K77" t="s">
+        <v>175</v>
+      </c>
+      <c r="L77" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>210</v>
-      </c>
-      <c r="F78">
-        <f>屏蔽规则!$E$31</f>
-      </c>
-      <c r="G78">
-        <f>屏蔽规则!$E$11</f>
-      </c>
-    </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>211</v>
-      </c>
-      <c r="F79">
-        <f>屏蔽规则!$E$32</f>
-      </c>
-      <c r="G79">
-        <f>屏蔽规则!$E$11</f>
+        <v>226</v>
+      </c>
+      <c r="F78" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" t="s">
+        <v>222</v>
+      </c>
+      <c r="H78" t="s">
+        <v>222</v>
+      </c>
+      <c r="I78" t="s">
+        <v>227</v>
+      </c>
+      <c r="J78" t="s">
+        <v>67</v>
+      </c>
+      <c r="K78" t="s">
+        <v>175</v>
+      </c>
+      <c r="L78" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
-        <v>212</v>
-      </c>
-      <c r="F80">
-        <f>屏蔽规则!$E$33</f>
-      </c>
-      <c r="G80">
-        <f>屏蔽规则!$E$11</f>
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>228</v>
+      </c>
+      <c r="D80" t="s" s="49">
+        <v>229</v>
+      </c>
+      <c r="E80" t="s" s="50">
+        <v>230</v>
+      </c>
+      <c r="F80" t="s" s="51">
+        <v>231</v>
+      </c>
+      <c r="G80" t="s" s="52">
+        <v>232</v>
+      </c>
+      <c r="H80" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="F81">
-        <f>屏蔽规则!$E$34</f>
+        <f>屏蔽规则!$E$17</f>
       </c>
       <c r="G81">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H81" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="F82">
-        <f>屏蔽规则!$E$35</f>
+        <f>屏蔽规则!$E$18</f>
       </c>
       <c r="G82">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H82" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="F83">
-        <f>屏蔽规则!$E$36</f>
+        <f>屏蔽规则!$E$19</f>
       </c>
       <c r="G83">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H83" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="F84">
-        <f>屏蔽规则!$E$37</f>
+        <f>屏蔽规则!$E$20</f>
       </c>
       <c r="G84">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H84" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="F85">
-        <f>屏蔽规则!$E$38</f>
+        <f>屏蔽规则!$E$21</f>
       </c>
       <c r="G85">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H85" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F86">
-        <f>屏蔽规则!$E$39</f>
+        <f>屏蔽规则!$E$22</f>
       </c>
       <c r="G86">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H86" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="F87">
-        <f>屏蔽规则!$E$40</f>
+        <f>屏蔽规则!$E$23</f>
       </c>
       <c r="G87">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H87" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="F88">
-        <f>屏蔽规则!$E$41</f>
+        <f>屏蔽规则!$E$24</f>
       </c>
       <c r="G88">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H88" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="F89">
-        <f>屏蔽规则!$E$42</f>
+        <f>屏蔽规则!$E$25</f>
       </c>
       <c r="G89">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H89" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F90">
-        <f>屏蔽规则!$E$43</f>
+        <f>屏蔽规则!$E$26</f>
       </c>
       <c r="G90">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$9</f>
+      </c>
+      <c r="H90" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F91">
-        <f>屏蔽规则!$E$44</f>
+        <f>屏蔽规则!$E$27</f>
       </c>
       <c r="G91">
         <f>屏蔽规则!$E$10</f>
       </c>
+      <c r="H91" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="F92">
-        <f>屏蔽规则!$E$45</f>
+        <f>屏蔽规则!$E$28</f>
       </c>
       <c r="G92">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H92" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F93">
-        <f>屏蔽规则!$E$46</f>
+        <f>屏蔽规则!$E$29</f>
       </c>
       <c r="G93">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H93" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="F94">
-        <f>屏蔽规则!$E$47</f>
+        <f>屏蔽规则!$E$30</f>
       </c>
       <c r="G94">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H94" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F95">
-        <f>屏蔽规则!$E$48</f>
+        <f>屏蔽规则!$E$31</f>
       </c>
       <c r="G95">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H95" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="F96">
-        <f>屏蔽规则!$E$49</f>
+        <f>屏蔽规则!$E$32</f>
       </c>
       <c r="G96">
-        <f>屏蔽规则!$E$9</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H96" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="F97">
-        <f>屏蔽规则!$E$50</f>
+        <f>屏蔽规则!$E$33</f>
       </c>
       <c r="G97">
-        <f>屏蔽规则!$E$12</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H97" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="F98">
-        <f>屏蔽规则!$E$51</f>
+        <f>屏蔽规则!$E$34</f>
       </c>
       <c r="G98">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H98" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F99">
-        <f>屏蔽规则!$E$52</f>
+        <f>屏蔽规则!$E$35</f>
       </c>
       <c r="G99">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H99" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="F100">
-        <f>屏蔽规则!$E$53</f>
+        <f>屏蔽规则!$E$36</f>
       </c>
       <c r="G100">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H100" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="F101">
-        <f>屏蔽规则!$E$54</f>
+        <f>屏蔽规则!$E$37</f>
       </c>
       <c r="G101">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H101" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F102">
-        <f>屏蔽规则!$E$55</f>
+        <f>屏蔽规则!$E$38</f>
       </c>
       <c r="G102">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$10</f>
+      </c>
+      <c r="H102" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="F103">
-        <f>屏蔽规则!$E$56</f>
+        <f>屏蔽规则!$E$39</f>
       </c>
       <c r="G103">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H103" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="F104">
-        <f>屏蔽规则!$E$57</f>
+        <f>屏蔽规则!$E$40</f>
       </c>
       <c r="G104">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H104" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="F105">
-        <f>屏蔽规则!$E$58</f>
+        <f>屏蔽规则!$E$41</f>
       </c>
       <c r="G105">
-        <f>屏蔽规则!$E$13</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H105" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="F106">
-        <f>屏蔽规则!$E$59</f>
+        <f>屏蔽规则!$E$42</f>
       </c>
       <c r="G106">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H106" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F107">
+        <f>屏蔽规则!$E$43</f>
+      </c>
+      <c r="G107">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H107" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="E108" t="s">
+        <v>261</v>
+      </c>
+      <c r="F108">
+        <f>屏蔽规则!$E$44</f>
+      </c>
+      <c r="G108">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="E109" t="s">
+        <v>262</v>
+      </c>
+      <c r="F109">
+        <f>屏蔽规则!$E$45</f>
+      </c>
+      <c r="G109">
+        <f>屏蔽规则!$E$10</f>
+      </c>
+      <c r="H109" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="E110" t="s">
+        <v>263</v>
+      </c>
+      <c r="F110">
+        <f>屏蔽规则!$E$46</f>
+      </c>
+      <c r="G110">
+        <f>屏蔽规则!$E$10</f>
+      </c>
+      <c r="H110" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="E111" t="s">
+        <v>264</v>
+      </c>
+      <c r="F111">
+        <f>屏蔽规则!$E$47</f>
+      </c>
+      <c r="G111">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H111" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="E112" t="s">
+        <v>265</v>
+      </c>
+      <c r="F112">
+        <f>屏蔽规则!$E$48</f>
+      </c>
+      <c r="G112">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H112" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="E113" t="s">
+        <v>266</v>
+      </c>
+      <c r="F113">
+        <f>屏蔽规则!$E$49</f>
+      </c>
+      <c r="G113">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H113" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="E114" t="s">
+        <v>267</v>
+      </c>
+      <c r="F114">
+        <f>屏蔽规则!$E$50</f>
+      </c>
+      <c r="G114">
+        <f>屏蔽规则!$E$11</f>
+      </c>
+      <c r="H114" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="E115" t="s">
+        <v>268</v>
+      </c>
+      <c r="F115">
+        <f>屏蔽规则!$E$51</f>
+      </c>
+      <c r="G115">
+        <f>屏蔽规则!$E$12</f>
+      </c>
+      <c r="H115" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="E116" t="s">
+        <v>269</v>
+      </c>
+      <c r="F116">
+        <f>屏蔽规则!$E$52</f>
+      </c>
+      <c r="G116">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="E117" t="s">
+        <v>270</v>
+      </c>
+      <c r="F117">
+        <f>屏蔽规则!$E$53</f>
+      </c>
+      <c r="G117">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H117" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="E118" t="s">
+        <v>271</v>
+      </c>
+      <c r="F118">
+        <f>屏蔽规则!$E$54</f>
+      </c>
+      <c r="G118">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H118" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="E119" t="s">
+        <v>272</v>
+      </c>
+      <c r="F119">
+        <f>屏蔽规则!$E$55</f>
+      </c>
+      <c r="G119">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H119" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="E120" t="s">
+        <v>273</v>
+      </c>
+      <c r="F120">
+        <f>屏蔽规则!$E$56</f>
+      </c>
+      <c r="G120">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H120" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="E121" t="s">
+        <v>274</v>
+      </c>
+      <c r="F121">
+        <f>屏蔽规则!$E$57</f>
+      </c>
+      <c r="G121">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H121" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="E122" t="s">
+        <v>275</v>
+      </c>
+      <c r="F122">
+        <f>屏蔽规则!$E$58</f>
+      </c>
+      <c r="G122">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H122" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="s">
+        <v>276</v>
+      </c>
+      <c r="F123">
+        <f>屏蔽规则!$E$59</f>
+      </c>
+      <c r="G123">
+        <f>屏蔽规则!$E$13</f>
+      </c>
+      <c r="H123" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="E124" t="s">
+        <v>277</v>
+      </c>
+      <c r="F124">
         <f>屏蔽规则!$E$60</f>
       </c>
-      <c r="G107">
-        <f>屏蔽规则!$E$11</f>
+      <c r="G124">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H124" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="E125" t="s">
+        <v>278</v>
+      </c>
+      <c r="F125">
+        <f>屏蔽规则!$E$61</f>
+      </c>
+      <c r="G125">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H125" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="E126" t="s">
+        <v>279</v>
+      </c>
+      <c r="F126">
+        <f>屏蔽规则!$E$64</f>
+      </c>
+      <c r="G126">
+        <f>屏蔽规则!$E$10</f>
+      </c>
+      <c r="H126" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="E127" t="s">
+        <v>280</v>
+      </c>
+      <c r="F127">
+        <f>屏蔽规则!$E$65</f>
+      </c>
+      <c r="G127">
+        <f>屏蔽规则!$E$10</f>
+      </c>
+      <c r="H127" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="E128" t="s">
+        <v>281</v>
+      </c>
+      <c r="F128">
+        <f>屏蔽规则!$E$74</f>
+      </c>
+      <c r="G128">
+        <f>屏蔽规则!$E$14</f>
+      </c>
+      <c r="H128" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="E129" t="s">
+        <v>282</v>
+      </c>
+      <c r="F129">
+        <f>屏蔽规则!$E$75</f>
+      </c>
+      <c r="G129">
+        <f>屏蔽规则!$E$14</f>
+      </c>
+      <c r="H129" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-permission-range.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="273">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2016,7 +2016,10 @@
     <t>rule_type_code</t>
   </si>
   <si>
-    <t>rule_name</t>
+    <t>rule_name:zh_CN</t>
+  </si>
+  <si>
+    <t>rule_name:en_US</t>
   </si>
   <si>
     <t>description</t>
@@ -2025,554 +2028,457 @@
     <t>sql_value</t>
   </si>
   <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>enabled_flag</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-8</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_PLATFORM</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>平台数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_platform</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-9</t>
+  </si>
+  <si>
+    <t>HIAM.ASSIGNED_MEMBER_ROLE</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>平台预制角色已分配用户屏蔽</t>
+  </si>
+  <si>
+    <t>请勿删除!</t>
+  </si>
+  <si>
+    <t>exists (  select 'x' from iam_role ir where ir.id = role_id and (ir.h_tenant_id = #{organizationId} or  exists (    select 'x' from iam_user iu where iu.id = member_id and iu.organization_id = #{organizationId})) )</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-10</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_MESSAGE</t>
+  </si>
+  <si>
+    <t>消息服务数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_message</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-11</t>
+  </si>
+  <si>
+    <t>PREFIX.ADMIN</t>
+  </si>
+  <si>
+    <t>平台治理服务数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_admin</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-12</t>
+  </si>
+  <si>
+    <t>PREFIX.INTERFACE</t>
+  </si>
+  <si>
+    <t>接口平台数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_interface</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-13</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_RULE_ENGINE</t>
+  </si>
+  <si>
+    <t>规则引擎服务前缀</t>
+  </si>
+  <si>
+    <t>hzero_rule_engine</t>
+  </si>
+  <si>
+    <t>屏蔽范围</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range</t>
+  </si>
+  <si>
+    <t>*range_id</t>
+  </si>
+  <si>
+    <t>custom_rule_flag</t>
+  </si>
+  <si>
+    <t>#table_name</t>
+  </si>
+  <si>
+    <t>#sql_id</t>
+  </si>
+  <si>
     <t>#tenant_id</t>
   </si>
   <si>
-    <t>enabled_flag</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-8</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_PLATFORM</t>
-  </si>
-  <si>
-    <t>PREFIX</t>
-  </si>
-  <si>
-    <t>平台数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_platform</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-9</t>
-  </si>
-  <si>
-    <t>HIAM.ASSIGNED_MEMBER_ROLE</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>平台预制角色已分配用户屏蔽</t>
-  </si>
-  <si>
-    <t>请勿删除!</t>
-  </si>
-  <si>
-    <t>exists (  select 'x' from iam_role ir where ir.id = role_id and (ir.h_tenant_id = #{organizationId} or  exists (    select 'x' from iam_user iu where iu.id = member_id and iu.organization_id = #{organizationId})) )</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-10</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_MESSAGE</t>
-  </si>
-  <si>
-    <t>消息服务数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_message</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-11</t>
-  </si>
-  <si>
-    <t>PREFIX.ADMIN</t>
-  </si>
-  <si>
-    <t>平台治理服务数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_admin</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-12</t>
-  </si>
-  <si>
-    <t>PREFIX.INTERFACE</t>
-  </si>
-  <si>
-    <t>接口平台数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_interface</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-13</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_RULE_ENGINE</t>
-  </si>
-  <si>
-    <t>规则引擎服务前缀</t>
-  </si>
-  <si>
-    <t>hzero_rule_engine</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-14</t>
-  </si>
-  <si>
-    <t>DT008702650000</t>
-  </si>
-  <si>
-    <t>测试23</t>
-  </si>
-  <si>
-    <t>由单据权限[TEST.23]维度[ROLE]自动生成</t>
-  </si>
-  <si>
-    <t>&lt;bind name="roleMergeIdList" value="@io.choerodon.core.oauth.DetailsHelper@getUserDetails().roleMergeIds()" /&gt; 
-&lt;bind name="roleAuthHeader" value="@org.hzero.boot.platform.data.permission.util.DocRedisUtils@checkRoleAuthHeaderAssign(87, &amp;quot;BIZ&amp;quot;, roleMergeIdList)" /&gt; 
-&lt;bind name="roleAuthLine" value="@org.hzero.boot.platform.data.permission.util.DocRedisUtils@checkRoleAuthLineAssign(87, &amp;quot;BIZ&amp;quot;, &amp;quot;ROLE&amp;quot;, roleMergeIdList)" /&gt; 
-&lt;bind name="userAuthAssign" value="@org.hzero.boot.platform.data.permission.util.DocRedisUtils@checkUserAuthAssign(tenantId, &amp;quot;ROLE&amp;quot;, userId)" /&gt; 
-&lt;choose&gt; 
-    &lt;when test="!roleAuthHeader"&gt; 
-           (EXISTS ( 
-				SELECT 1  
-				FROM hiam_role_authority hra  
-				JOIN hiam_doc_type hdt ON (hdt.doc_type_id = hra.auth_doc_type_id AND hdt.enabled_flag = 1 AND hdt.doc_type_id = 87)  
-				JOIN hiam_doc_type_auth_dim hdtad ON hdtad.doc_type_id = hdt.doc_type_id AND hdtad.auth_type_code = 'ROLE' 
-				WHERE hra.auth_scope_code = 'BIZ'  
-				AND hra.role_id IN 
-               &lt;foreach collection="roleMergeIdList" open="(" separator="," item="roleMergeId" close=")"&gt;
-                               #{roleMergeId}               
-&lt;/foreach&gt;)) 
-    &lt;/when&gt; 
-    &lt;when test="!roleAuthLine"&gt; 
-	     1=1 
-	 &lt;/when&gt; 
-	 &lt;when test="!userAuthAssign"&gt; 
-	     (EXISTS ( 
-		      SELECT 1  
-		      FROM hiam_role_auth_data hrad  
-		      LEFT JOIN hiam_role_auth_data_line hradl ON hrad.auth_data_id = hradl.auth_data_id  
-		      WHERE hrad.tenant_id = #{tenantId}  
-		      AND hrad.role_id IN 
-             &lt;foreach collection="roleMergeIdList" open="(" separator="," item="roleMergeId" close=")"&gt;
-                             #{roleMergeId}             
-&lt;/foreach&gt; 
-		      AND hrad.authority_type_code = 'ROLE' 
-		      AND (hrad.include_all_flag = 1 OR hradl.data_id = ${tableAlias}.2))) 
-	 &lt;/when&gt; 
-	 &lt;when test="userAuthAssign"&gt; 
-        (EXISTS ( 
-            SELECT 1  
-            FROM hiam_user_authority hua1  
-            LEFT JOIN hiam_user_authority_line hual1 ON hua1.authority_id = hual1.authority_id  
-            WHERE hua1.tenant_id = #{tenantId} 
-            AND hua1.user_id = #{userId} 
-            AND hua1.authority_type_code = 'ROLE'  
-            AND (hua1.include_all_flag = 1 OR hual1.data_id = ${tableAlias}.2))) 
-	 &lt;/when&gt; 
-	 &lt;otherwise&gt; 
-        1=2 
-	 &lt;/otherwise&gt; 
-&lt;/choose&gt;</t>
-  </si>
-  <si>
-    <t>屏蔽范围</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range</t>
-  </si>
-  <si>
-    <t>*range_id</t>
-  </si>
-  <si>
-    <t>custom_rule_flag</t>
-  </si>
-  <si>
-    <t>#table_name</t>
-  </si>
-  <si>
-    <t>#sql_id</t>
-  </si>
-  <si>
     <t>#service_name</t>
   </si>
   <si>
+    <t>hpfm_permission_range-16</t>
+  </si>
+  <si>
+    <t>hpfm_company</t>
+  </si>
+  <si>
     <t>hpfm_permission_range-17</t>
   </si>
   <si>
-    <t>hpfm_company</t>
+    <t>hpfm_group</t>
   </si>
   <si>
     <t>hpfm_permission_range-18</t>
   </si>
   <si>
-    <t>hpfm_group</t>
+    <t>hpfm_tenant</t>
   </si>
   <si>
     <t>hpfm_permission_range-19</t>
   </si>
   <si>
-    <t>hpfm_tenant</t>
+    <t>iam_role</t>
   </si>
   <si>
     <t>hpfm_permission_range-20</t>
   </si>
   <si>
-    <t>iam_role</t>
+    <t>iam_user</t>
   </si>
   <si>
     <t>hpfm_permission_range-21</t>
   </si>
   <si>
-    <t>iam_user</t>
+    <t>oauth_client</t>
   </si>
   <si>
     <t>hpfm_permission_range-22</t>
   </si>
   <si>
-    <t>oauth_client</t>
+    <t>hpfm_datasource</t>
   </si>
   <si>
     <t>hpfm_permission_range-23</t>
   </si>
   <si>
-    <t>hpfm_datasource</t>
+    <t>hpfm_rule_script</t>
   </si>
   <si>
     <t>hpfm_permission_range-24</t>
   </si>
   <si>
-    <t>hpfm_rule_script</t>
+    <t>hiam_tenant_access</t>
   </si>
   <si>
     <t>hpfm_permission_range-25</t>
   </si>
   <si>
-    <t>hiam_tenant_access</t>
+    <t>iam_member_role</t>
+  </si>
+  <si>
+    <t>org.hzero.iam.infra.mapper.HiamUserMapper.selectRoleUsers</t>
   </si>
   <si>
     <t>hpfm_permission_range-26</t>
   </si>
   <si>
-    <t>iam_member_role</t>
-  </si>
-  <si>
-    <t>org.hzero.iam.infra.mapper.HiamUserMapper.selectRoleUsers</t>
+    <t>hmsg_message_template</t>
   </si>
   <si>
     <t>hpfm_permission_range-27</t>
   </si>
   <si>
-    <t>hmsg_message_template</t>
+    <t>hpfm_server</t>
   </si>
   <si>
     <t>hpfm_permission_range-28</t>
   </si>
   <si>
-    <t>hpfm_server</t>
+    <t>hpfm_server_cluster</t>
   </si>
   <si>
     <t>hpfm_permission_range-29</t>
   </si>
   <si>
-    <t>hpfm_server_cluster</t>
+    <t>hiam_role_auth_data</t>
   </si>
   <si>
     <t>hpfm_permission_range-30</t>
   </si>
   <si>
-    <t>hiam_role_auth_data</t>
+    <t>hiam_role_auth_data_line</t>
   </si>
   <si>
     <t>hpfm_permission_range-31</t>
   </si>
   <si>
-    <t>hiam_role_auth_data_line</t>
+    <t>hiam_role_authority_line</t>
   </si>
   <si>
     <t>hpfm_permission_range-32</t>
   </si>
   <si>
-    <t>hiam_role_authority_line</t>
+    <t>hiam_user_authority</t>
   </si>
   <si>
     <t>hpfm_permission_range-33</t>
   </si>
   <si>
-    <t>hiam_user_authority</t>
+    <t>hiam_user_authority_line</t>
   </si>
   <si>
     <t>hpfm_permission_range-34</t>
   </si>
   <si>
-    <t>hiam_user_authority_line</t>
+    <t>iam_permission</t>
   </si>
   <si>
     <t>hpfm_permission_range-35</t>
   </si>
   <si>
-    <t>iam_permission</t>
+    <t>hiam_doc_type</t>
+  </si>
+  <si>
+    <t>请勿删除</t>
   </si>
   <si>
     <t>hpfm_permission_range-36</t>
   </si>
   <si>
-    <t>hiam_doc_type</t>
-  </si>
-  <si>
-    <t>请勿删除</t>
+    <t>hpfm_tenant_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-37</t>
   </si>
   <si>
-    <t>hpfm_tenant_tl</t>
+    <t>hmsg_email_server</t>
   </si>
   <si>
     <t>hpfm_permission_range-38</t>
   </si>
   <si>
-    <t>hmsg_email_server</t>
+    <t>hpfm_uom</t>
   </si>
   <si>
     <t>hpfm_permission_range-39</t>
   </si>
   <si>
-    <t>hpfm_uom</t>
+    <t>hpfm_employee</t>
   </si>
   <si>
     <t>hpfm_permission_range-40</t>
   </si>
   <si>
-    <t>hpfm_employee</t>
+    <t>hpfm_employee_assign</t>
   </si>
   <si>
     <t>hpfm_permission_range-41</t>
   </si>
   <si>
-    <t>hpfm_employee_assign</t>
+    <t>hpfm_employee_user</t>
   </si>
   <si>
     <t>hpfm_permission_range-42</t>
   </si>
   <si>
-    <t>hpfm_employee_user</t>
+    <t>hpfm_lov_value</t>
   </si>
   <si>
     <t>hpfm_permission_range-43</t>
   </si>
   <si>
-    <t>hpfm_lov_value</t>
+    <t>hpfm_lov_value_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-44</t>
   </si>
   <si>
-    <t>hpfm_lov_value_tl</t>
+    <t>hmsg_message</t>
   </si>
   <si>
     <t>hpfm_permission_range-45</t>
   </si>
   <si>
-    <t>hmsg_message</t>
+    <t>hmsg_message_receiver</t>
   </si>
   <si>
     <t>hpfm_permission_range-46</t>
   </si>
   <si>
-    <t>hmsg_message_receiver</t>
+    <t>hpfm_lov</t>
   </si>
   <si>
     <t>hpfm_permission_range-47</t>
   </si>
   <si>
-    <t>hpfm_lov</t>
+    <t>fd_language</t>
   </si>
   <si>
     <t>hpfm_permission_range-48</t>
   </si>
   <si>
-    <t>fd_language</t>
+    <t>hiam_user_group_assign</t>
   </si>
   <si>
     <t>hpfm_permission_range-49</t>
   </si>
   <si>
-    <t>hiam_user_group_assign</t>
+    <t>hadm_service</t>
   </si>
   <si>
     <t>hpfm_permission_range-50</t>
   </si>
   <si>
-    <t>hadm_service</t>
+    <t>hitf_interface_server</t>
+  </si>
+  <si>
+    <t>hzero-platform</t>
   </si>
   <si>
     <t>hpfm_permission_range-51</t>
   </si>
   <si>
-    <t>hitf_interface_server</t>
-  </si>
-  <si>
-    <t>hzero-platform</t>
+    <t>hiam_user_group</t>
   </si>
   <si>
     <t>hpfm_permission_range-52</t>
   </si>
   <si>
-    <t>hiam_user_group</t>
+    <t>hpfm_unit</t>
   </si>
   <si>
     <t>hpfm_permission_range-53</t>
   </si>
   <si>
-    <t>hpfm_unit</t>
+    <t>hpfm_lov_view_header</t>
   </si>
   <si>
     <t>hpfm_permission_range-54</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header</t>
+    <t>hpfm_lov_view_header_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-55</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header_tl</t>
+    <t>hpfm_hr_sync_employee</t>
   </si>
   <si>
     <t>hpfm_permission_range-56</t>
   </si>
   <si>
-    <t>hpfm_hr_sync_employee</t>
-  </si>
-  <si>
     <t>hpfm_permission_range-57</t>
   </si>
   <si>
+    <t>hiam_doc_type_auth_dim</t>
+  </si>
+  <si>
     <t>hpfm_permission_range-58</t>
   </si>
   <si>
-    <t>hiam_doc_type_auth_dim</t>
+    <t>hres_rule</t>
   </si>
   <si>
     <t>hpfm_permission_range-59</t>
   </si>
   <si>
-    <t>hres_rule</t>
+    <t>hiam_role_rel</t>
   </si>
   <si>
     <t>hpfm_permission_range-60</t>
   </si>
   <si>
-    <t>hiam_role_rel</t>
+    <t>hpfm_code_rule</t>
   </si>
   <si>
     <t>hpfm_permission_range-61</t>
   </si>
   <si>
-    <t>hpfm_code_rule</t>
+    <t>hmsg_template_server</t>
   </si>
   <si>
     <t>hpfm_permission_range-62</t>
   </si>
   <si>
-    <t>biz_order</t>
-  </si>
-  <si>
-    <t>由单据权限[TEST-ZC]维度[COMPANY]自动生成</t>
+    <t>hmsg_receiver_type</t>
   </si>
   <si>
     <t>hpfm_permission_range-63</t>
   </si>
   <si>
-    <t>由单据权限[TEST-ZC]维度[LOV]自动生成</t>
+    <t>hpfm_country</t>
+  </si>
+  <si>
+    <t>由单据权限[COUNTRY]维度[MIJI]自动生成</t>
   </si>
   <si>
     <t>hpfm_permission_range-64</t>
   </si>
   <si>
-    <t>hmsg_template_server</t>
+    <t>iam_menu_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-65</t>
   </si>
   <si>
-    <t>hmsg_receiver_type</t>
+    <t>iam_role_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-66</t>
   </si>
   <si>
-    <t>hpfm_country</t>
-  </si>
-  <si>
-    <t>由单据权限[COUNTRY]维度[MIJI]自动生成</t>
+    <t>iam_label</t>
   </si>
   <si>
     <t>hpfm_permission_range-67</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>由单据权限[HPFM.LOV]维度[LOV]自动生成</t>
+    <t>hiam_label_rel</t>
   </si>
   <si>
     <t>hpfm_permission_range-68</t>
   </si>
   <si>
-    <t>234356433</t>
+    <t>hpfm_financial_code</t>
   </si>
   <si>
     <t>hpfm_permission_range-69</t>
   </si>
   <si>
-    <t>1234trgfedw</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-70</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-71</t>
-  </si>
-  <si>
-    <t>s2</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-72</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-73</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-74</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-75</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-76</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-77</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-78</t>
-  </si>
-  <si>
-    <t>由单据权限[TEST-ZC]维度[TSET-ZC]自动生成</t>
+    <t>iam_permission_tl</t>
   </si>
   <si>
     <t>屏蔽范围规则关系</t>
@@ -2593,6 +2499,36 @@
     <t>editable_flag</t>
   </si>
   <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-72</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-73</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-74</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-75</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-76</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-77</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-78</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-79</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-80</t>
+  </si>
+  <si>
     <t>hpfm_permission_rel-81</t>
   </si>
   <si>
@@ -2726,18 +2662,6 @@
   </si>
   <si>
     <t>hpfm_permission_rel-125</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-126</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-127</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-128</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-129</t>
   </si>
 </sst>
 </file>
@@ -2745,7 +2669,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2907,6 +2831,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3107,7 +3036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3195,6 +3124,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3780,7 +3710,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3842,225 +3772,261 @@
       <c r="J7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s" s="42">
+      <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="42">
         <v>61</v>
+      </c>
+      <c r="M7" t="s" s="43">
+        <v>62</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
         <v>75</v>
       </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>78</v>
-      </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="M11" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="M12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
         <v>93</v>
       </c>
-      <c r="I14" t="s">
+      <c r="D15" t="s" s="44">
         <v>94</v>
       </c>
-      <c r="J14" t="s">
+      <c r="E15" t="s" s="45">
         <v>95</v>
       </c>
-      <c r="K14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" t="s">
-        <v>68</v>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" t="s" s="46">
+        <v>97</v>
+      </c>
+      <c r="H15" t="s" s="47">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s" s="48">
+        <v>99</v>
+      </c>
+      <c r="K15" t="s" s="49">
+        <v>100</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s" s="43">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s" s="44">
-        <v>98</v>
+      <c r="E16" t="s">
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" t="s" s="45">
-        <v>100</v>
-      </c>
-      <c r="H16" t="s" s="46">
-        <v>101</v>
+        <v>69</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" t="s" s="47">
-        <v>60</v>
-      </c>
-      <c r="K16" t="s" s="48">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -4068,19 +4034,19 @@
         <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
         <v>104</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -4088,19 +4054,19 @@
         <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
         <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -4108,19 +4074,19 @@
         <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
         <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -4128,19 +4094,19 @@
         <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
         <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
@@ -4148,19 +4114,19 @@
         <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
         <v>112</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -4168,19 +4134,19 @@
         <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
         <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -4188,19 +4154,19 @@
         <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
         <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
@@ -4208,19 +4174,19 @@
         <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
         <v>118</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -4228,42 +4194,42 @@
         <v>119</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
         <v>120</v>
       </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" t="s">
         <v>123</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -4271,19 +4237,19 @@
         <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G27" t="s">
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -4291,19 +4257,19 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
         <v>127</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -4311,19 +4277,19 @@
         <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
         <v>129</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -4331,19 +4297,19 @@
         <v>130</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
         <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -4351,19 +4317,19 @@
         <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
         <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -4371,19 +4337,19 @@
         <v>134</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
         <v>135</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -4391,19 +4357,19 @@
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
         <v>137</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -4411,19 +4377,19 @@
         <v>138</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
         <v>139</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -4431,39 +4397,39 @@
         <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G35" t="s">
         <v>141</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I36" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -4471,19 +4437,19 @@
         <v>145</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G37" t="s">
         <v>146</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -4491,19 +4457,19 @@
         <v>147</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
         <v>148</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -4511,19 +4477,19 @@
         <v>149</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
         <v>150</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -4531,19 +4497,19 @@
         <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G40" t="s">
         <v>152</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41">
@@ -4551,19 +4517,19 @@
         <v>153</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
         <v>154</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42">
@@ -4571,19 +4537,19 @@
         <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
         <v>156</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
@@ -4591,19 +4557,19 @@
         <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
         <v>158</v>
       </c>
       <c r="I43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -4611,19 +4577,19 @@
         <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
         <v>160</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
@@ -4631,19 +4597,19 @@
         <v>161</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
         <v>162</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46">
@@ -4651,19 +4617,19 @@
         <v>163</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
         <v>164</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -4671,19 +4637,19 @@
         <v>165</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
         <v>166</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
@@ -4691,19 +4657,19 @@
         <v>167</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
         <v>168</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -4711,19 +4677,19 @@
         <v>169</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
         <v>170</v>
       </c>
       <c r="I49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -4731,39 +4697,39 @@
         <v>171</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
         <v>172</v>
       </c>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
       <c r="J50" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="K50" t="s">
+        <v>173</v>
       </c>
       <c r="L50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
       <c r="E51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
       </c>
       <c r="J51" t="s">
-        <v>67</v>
-      </c>
-      <c r="K51" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="L51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -4771,19 +4737,19 @@
         <v>176</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G52" t="s">
         <v>177</v>
       </c>
       <c r="I52" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53">
@@ -4791,19 +4757,16 @@
         <v>178</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G53" t="s">
         <v>179</v>
       </c>
-      <c r="I53" t="s">
-        <v>73</v>
-      </c>
       <c r="J53" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -4811,16 +4774,16 @@
         <v>180</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G54" t="s">
         <v>181</v>
       </c>
       <c r="J54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55">
@@ -4828,16 +4791,16 @@
         <v>182</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
         <v>183</v>
       </c>
       <c r="J55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56">
@@ -4845,33 +4808,36 @@
         <v>184</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="J56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" t="s">
         <v>186</v>
       </c>
-      <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s">
-        <v>122</v>
+      <c r="I57" t="s">
+        <v>142</v>
       </c>
       <c r="J57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
@@ -4879,19 +4845,16 @@
         <v>187</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
         <v>188</v>
       </c>
-      <c r="I58" t="s">
-        <v>144</v>
-      </c>
       <c r="J58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59">
@@ -4899,16 +4862,16 @@
         <v>189</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G59" t="s">
         <v>190</v>
       </c>
       <c r="J59" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60">
@@ -4916,16 +4879,19 @@
         <v>191</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G60" t="s">
         <v>192</v>
       </c>
+      <c r="I60" t="s">
+        <v>75</v>
+      </c>
       <c r="J60" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
@@ -4933,19 +4899,16 @@
         <v>193</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G61" t="s">
         <v>194</v>
       </c>
-      <c r="I61" t="s">
-        <v>73</v>
-      </c>
       <c r="J61" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
@@ -4953,45 +4916,39 @@
         <v>195</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G62" t="s">
         <v>196</v>
       </c>
-      <c r="I62" t="s">
-        <v>197</v>
-      </c>
       <c r="J62" t="s">
-        <v>67</v>
-      </c>
-      <c r="K62" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="L62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63">
       <c r="E63" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
         <v>198</v>
-      </c>
-      <c r="F63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" t="s">
-        <v>166</v>
       </c>
       <c r="I63" t="s">
         <v>199</v>
       </c>
       <c r="J63" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64">
@@ -4999,16 +4956,16 @@
         <v>200</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G64" t="s">
         <v>201</v>
       </c>
       <c r="J64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65">
@@ -5016,16 +4973,16 @@
         <v>202</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G65" t="s">
         <v>203</v>
       </c>
       <c r="J65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66">
@@ -5033,1028 +4990,1014 @@
         <v>204</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G66" t="s">
         <v>205</v>
       </c>
-      <c r="I66" t="s">
-        <v>206</v>
-      </c>
       <c r="J66" t="s">
-        <v>67</v>
-      </c>
-      <c r="K66" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="L66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
         <v>207</v>
       </c>
-      <c r="F67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" t="s">
-        <v>166</v>
-      </c>
-      <c r="H67" t="s">
-        <v>208</v>
-      </c>
-      <c r="I67" t="s">
-        <v>209</v>
-      </c>
       <c r="J67" t="s">
-        <v>67</v>
-      </c>
-      <c r="K67" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="L67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J68" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
+        <v>210</v>
+      </c>
+      <c r="F69" t="s">
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>211</v>
+      </c>
+      <c r="J69" t="s">
+        <v>69</v>
+      </c>
+      <c r="L69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s">
         <v>212</v>
       </c>
-      <c r="F69" t="s">
-        <v>67</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="D71" t="s" s="50">
         <v>213</v>
       </c>
-      <c r="J69" t="s">
-        <v>67</v>
-      </c>
-      <c r="L69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="E70" t="s">
+      <c r="E71" t="s" s="51">
         <v>214</v>
       </c>
-      <c r="F70" t="s">
-        <v>67</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F71" t="s" s="52">
         <v>215</v>
       </c>
-      <c r="H70" t="s">
+      <c r="G71" t="s" s="53">
         <v>216</v>
       </c>
-      <c r="I70" t="s">
-        <v>94</v>
-      </c>
-      <c r="J70" t="s">
-        <v>67</v>
-      </c>
-      <c r="K70" t="s">
-        <v>175</v>
-      </c>
-      <c r="L70" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>217</v>
       </c>
-      <c r="F71" t="s">
-        <v>67</v>
-      </c>
-      <c r="G71" t="s">
-        <v>215</v>
-      </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>218</v>
-      </c>
-      <c r="I71" t="s">
-        <v>94</v>
-      </c>
-      <c r="J71" t="s">
-        <v>67</v>
-      </c>
-      <c r="K71" t="s">
-        <v>175</v>
-      </c>
-      <c r="L71" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
         <v>219</v>
       </c>
-      <c r="F72" t="s">
-        <v>67</v>
-      </c>
-      <c r="G72" t="s">
-        <v>166</v>
+      <c r="F72">
+        <f>屏蔽规则!$E$16</f>
+      </c>
+      <c r="G72">
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H72" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="I72" t="s">
-        <v>94</v>
-      </c>
-      <c r="J72" t="s">
-        <v>67</v>
-      </c>
-      <c r="K72" t="s">
-        <v>175</v>
-      </c>
-      <c r="L72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
         <v>220</v>
       </c>
-      <c r="F73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" t="s">
-        <v>166</v>
+      <c r="F73">
+        <f>屏蔽规则!$E$17</f>
+      </c>
+      <c r="G73">
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H73" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
-      </c>
-      <c r="J73" t="s">
-        <v>67</v>
-      </c>
-      <c r="K73" t="s">
-        <v>175</v>
-      </c>
-      <c r="L73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
         <v>221</v>
       </c>
-      <c r="F74" t="s">
-        <v>67</v>
-      </c>
-      <c r="G74" t="s">
-        <v>222</v>
+      <c r="F74">
+        <f>屏蔽规则!$E$18</f>
+      </c>
+      <c r="G74">
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H74" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="I74" t="s">
-        <v>94</v>
-      </c>
-      <c r="J74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K74" t="s">
-        <v>175</v>
-      </c>
-      <c r="L74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>223</v>
-      </c>
-      <c r="F75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G75" t="s">
         <v>222</v>
       </c>
+      <c r="F75">
+        <f>屏蔽规则!$E$19</f>
+      </c>
+      <c r="G75">
+        <f>屏蔽规则!$E$8</f>
+      </c>
       <c r="H75" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="I75" t="s">
-        <v>94</v>
-      </c>
-      <c r="J75" t="s">
-        <v>67</v>
-      </c>
-      <c r="K75" t="s">
-        <v>175</v>
-      </c>
-      <c r="L75" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>224</v>
-      </c>
-      <c r="F76" t="s">
-        <v>67</v>
-      </c>
-      <c r="G76" t="s">
-        <v>196</v>
+        <v>223</v>
+      </c>
+      <c r="F76">
+        <f>屏蔽规则!$E$20</f>
+      </c>
+      <c r="G76">
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H76" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="I76" t="s">
-        <v>197</v>
-      </c>
-      <c r="J76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K76" t="s">
-        <v>175</v>
-      </c>
-      <c r="L76" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>225</v>
-      </c>
-      <c r="F77" t="s">
-        <v>67</v>
-      </c>
-      <c r="G77" t="s">
-        <v>166</v>
+        <v>224</v>
+      </c>
+      <c r="F77">
+        <f>屏蔽规则!$E$21</f>
+      </c>
+      <c r="G77">
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H77" t="s">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c r="I77" t="s">
-        <v>199</v>
-      </c>
-      <c r="J77" t="s">
-        <v>67</v>
-      </c>
-      <c r="K77" t="s">
-        <v>175</v>
-      </c>
-      <c r="L77" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78">
+        <f>屏蔽规则!$E$22</f>
+      </c>
+      <c r="G78">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H78" t="s">
+        <v>70</v>
+      </c>
+      <c r="I78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="E79" t="s">
         <v>226</v>
       </c>
-      <c r="F78" t="s">
-        <v>67</v>
-      </c>
-      <c r="G78" t="s">
-        <v>222</v>
-      </c>
-      <c r="H78" t="s">
-        <v>222</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="F79">
+        <f>屏蔽规则!$E$23</f>
+      </c>
+      <c r="G79">
+        <f>屏蔽规则!$E$8</f>
+      </c>
+      <c r="H79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="E80" t="s">
         <v>227</v>
       </c>
-      <c r="J78" t="s">
-        <v>67</v>
-      </c>
-      <c r="K78" t="s">
-        <v>175</v>
-      </c>
-      <c r="L78" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" t="s">
-        <v>228</v>
-      </c>
-      <c r="D80" t="s" s="49">
-        <v>229</v>
-      </c>
-      <c r="E80" t="s" s="50">
-        <v>230</v>
-      </c>
-      <c r="F80" t="s" s="51">
-        <v>231</v>
-      </c>
-      <c r="G80" t="s" s="52">
-        <v>232</v>
+      <c r="F80">
+        <f>屏蔽规则!$E$24</f>
+      </c>
+      <c r="G80">
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H80" t="s">
-        <v>233</v>
+        <v>70</v>
+      </c>
+      <c r="I80" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F81">
-        <f>屏蔽规则!$E$17</f>
+        <f>屏蔽规则!$E$25</f>
       </c>
       <c r="G81">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$9</f>
       </c>
       <c r="H81" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I81" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F82">
-        <f>屏蔽规则!$E$18</f>
+        <f>屏蔽规则!$E$26</f>
       </c>
       <c r="G82">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H82" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I82" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F83">
-        <f>屏蔽规则!$E$19</f>
+        <f>屏蔽规则!$E$27</f>
       </c>
       <c r="G83">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H83" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I83" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F84">
-        <f>屏蔽规则!$E$20</f>
+        <f>屏蔽规则!$E$28</f>
       </c>
       <c r="G84">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H84" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I84" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F85">
-        <f>屏蔽规则!$E$21</f>
+        <f>屏蔽规则!$E$29</f>
       </c>
       <c r="G85">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H85" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I85" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F86">
-        <f>屏蔽规则!$E$22</f>
+        <f>屏蔽规则!$E$30</f>
       </c>
       <c r="G86">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H86" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I86" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F87">
-        <f>屏蔽规则!$E$23</f>
+        <f>屏蔽规则!$E$31</f>
       </c>
       <c r="G87">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H87" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I87" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F88">
-        <f>屏蔽规则!$E$24</f>
+        <f>屏蔽规则!$E$32</f>
       </c>
       <c r="G88">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H88" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I88" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F89">
-        <f>屏蔽规则!$E$25</f>
+        <f>屏蔽规则!$E$33</f>
       </c>
       <c r="G89">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H89" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I89" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F90">
-        <f>屏蔽规则!$E$26</f>
+        <f>屏蔽规则!$E$34</f>
       </c>
       <c r="G90">
-        <f>屏蔽规则!$E$9</f>
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H90" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I90" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F91">
-        <f>屏蔽规则!$E$27</f>
+        <f>屏蔽规则!$E$35</f>
       </c>
       <c r="G91">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H91" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I91" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F92">
-        <f>屏蔽规则!$E$28</f>
+        <f>屏蔽规则!$E$36</f>
       </c>
       <c r="G92">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H92" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I92" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F93">
-        <f>屏蔽规则!$E$29</f>
+        <f>屏蔽规则!$E$37</f>
       </c>
       <c r="G93">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H93" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I93" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F94">
-        <f>屏蔽规则!$E$30</f>
+        <f>屏蔽规则!$E$38</f>
       </c>
       <c r="G94">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H94" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I94" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F95">
-        <f>屏蔽规则!$E$31</f>
+        <f>屏蔽规则!$E$39</f>
       </c>
       <c r="G95">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H95" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I95" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F96">
-        <f>屏蔽规则!$E$32</f>
+        <f>屏蔽规则!$E$40</f>
       </c>
       <c r="G96">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H96" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I96" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F97">
-        <f>屏蔽规则!$E$33</f>
+        <f>屏蔽规则!$E$41</f>
       </c>
       <c r="G97">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H97" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I97" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F98">
-        <f>屏蔽规则!$E$34</f>
+        <f>屏蔽规则!$E$42</f>
       </c>
       <c r="G98">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H98" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I98" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F99">
-        <f>屏蔽规则!$E$35</f>
+        <f>屏蔽规则!$E$43</f>
       </c>
       <c r="G99">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H99" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I99" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F100">
-        <f>屏蔽规则!$E$36</f>
+        <f>屏蔽规则!$E$44</f>
       </c>
       <c r="G100">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H100" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I100" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F101">
-        <f>屏蔽规则!$E$37</f>
+        <f>屏蔽规则!$E$45</f>
       </c>
       <c r="G101">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H101" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I101" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F102">
-        <f>屏蔽规则!$E$38</f>
+        <f>屏蔽规则!$E$46</f>
       </c>
       <c r="G102">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H102" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I102" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F103">
-        <f>屏蔽规则!$E$39</f>
+        <f>屏蔽规则!$E$47</f>
       </c>
       <c r="G103">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H103" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I103" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F104">
-        <f>屏蔽规则!$E$40</f>
+        <f>屏蔽规则!$E$48</f>
       </c>
       <c r="G104">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H104" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I104" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F105">
-        <f>屏蔽规则!$E$41</f>
+        <f>屏蔽规则!$E$49</f>
       </c>
       <c r="G105">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H105" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I105" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F106">
-        <f>屏蔽规则!$E$42</f>
+        <f>屏蔽规则!$E$50</f>
       </c>
       <c r="G106">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$12</f>
       </c>
       <c r="H106" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I106" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F107">
-        <f>屏蔽规则!$E$43</f>
+        <f>屏蔽规则!$E$51</f>
       </c>
       <c r="G107">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H107" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I107" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F108">
-        <f>屏蔽规则!$E$44</f>
+        <f>屏蔽规则!$E$52</f>
       </c>
       <c r="G108">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H108" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I108" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F109">
-        <f>屏蔽规则!$E$45</f>
+        <f>屏蔽规则!$E$53</f>
       </c>
       <c r="G109">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H109" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I109" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F110">
-        <f>屏蔽规则!$E$46</f>
+        <f>屏蔽规则!$E$54</f>
       </c>
       <c r="G110">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H110" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I110" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F111">
-        <f>屏蔽规则!$E$47</f>
+        <f>屏蔽规则!$E$55</f>
       </c>
       <c r="G111">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H111" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I111" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F112">
-        <f>屏蔽规则!$E$48</f>
+        <f>屏蔽规则!$E$56</f>
       </c>
       <c r="G112">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H112" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I112" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F113">
-        <f>屏蔽规则!$E$49</f>
+        <f>屏蔽规则!$E$57</f>
       </c>
       <c r="G113">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H113" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I113" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F114">
-        <f>屏蔽规则!$E$50</f>
+        <f>屏蔽规则!$E$58</f>
       </c>
       <c r="G114">
-        <f>屏蔽规则!$E$11</f>
+        <f>屏蔽规则!$E$13</f>
       </c>
       <c r="H114" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I114" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F115">
-        <f>屏蔽规则!$E$51</f>
+        <f>屏蔽规则!$E$59</f>
       </c>
       <c r="G115">
-        <f>屏蔽规则!$E$12</f>
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H115" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I115" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F116">
-        <f>屏蔽规则!$E$52</f>
+        <f>屏蔽规则!$E$60</f>
       </c>
       <c r="G116">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H116" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I116" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F117">
-        <f>屏蔽规则!$E$53</f>
+        <f>屏蔽规则!$E$61</f>
       </c>
       <c r="G117">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H117" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I117" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="118">
       <c r="E118" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F118">
-        <f>屏蔽规则!$E$54</f>
+        <f>屏蔽规则!$E$62</f>
       </c>
       <c r="G118">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H118" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I118" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="119">
       <c r="E119" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F119">
-        <f>屏蔽规则!$E$55</f>
+        <f>屏蔽规则!$E$63</f>
       </c>
       <c r="G119">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H119" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I119" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="120">
       <c r="E120" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F120">
-        <f>屏蔽规则!$E$56</f>
+        <f>屏蔽规则!$E$64</f>
       </c>
       <c r="G120">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H120" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I120" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="121">
       <c r="E121" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F121">
-        <f>屏蔽规则!$E$57</f>
+        <f>屏蔽规则!$E$65</f>
       </c>
       <c r="G121">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H121" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I121" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="122">
       <c r="E122" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F122">
-        <f>屏蔽规则!$E$58</f>
+        <f>屏蔽规则!$E$66</f>
       </c>
       <c r="G122">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H122" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I122" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="123">
       <c r="E123" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F123">
-        <f>屏蔽规则!$E$59</f>
+        <f>屏蔽规则!$E$67</f>
       </c>
       <c r="G123">
-        <f>屏蔽规则!$E$13</f>
+        <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H123" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I123" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="124">
       <c r="E124" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F124">
-        <f>屏蔽规则!$E$60</f>
+        <f>屏蔽规则!$E$68</f>
       </c>
       <c r="G124">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H124" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="I124" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="125">
       <c r="E125" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F125">
-        <f>屏蔽规则!$E$61</f>
+        <f>屏蔽规则!$E$69</f>
       </c>
       <c r="G125">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H125" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="E126" t="s">
-        <v>279</v>
-      </c>
-      <c r="F126">
-        <f>屏蔽规则!$E$64</f>
-      </c>
-      <c r="G126">
-        <f>屏蔽规则!$E$10</f>
-      </c>
-      <c r="H126" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="E127" t="s">
-        <v>280</v>
-      </c>
-      <c r="F127">
-        <f>屏蔽规则!$E$65</f>
-      </c>
-      <c r="G127">
-        <f>屏蔽规则!$E$10</f>
-      </c>
-      <c r="H127" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="E128" t="s">
-        <v>281</v>
-      </c>
-      <c r="F128">
-        <f>屏蔽规则!$E$74</f>
-      </c>
-      <c r="G128">
-        <f>屏蔽规则!$E$14</f>
-      </c>
-      <c r="H128" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="E129" t="s">
-        <v>282</v>
-      </c>
-      <c r="F129">
-        <f>屏蔽规则!$E$75</f>
-      </c>
-      <c r="G129">
-        <f>屏蔽规则!$E$14</f>
-      </c>
-      <c r="H129" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="I125" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-permission-range.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2028,10 +2028,10 @@
     <t>sql_value</t>
   </si>
   <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>enabled_flag</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-permission-range.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-permission-range.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="259">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2037,93 +2037,84 @@
     <t>enabled_flag</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>hpfm_permission_rule-8</t>
   </si>
   <si>
+    <t>HIAM.ASSIGNED_MEMBER_ROLE</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>平台预制角色已分配用户屏蔽</t>
+  </si>
+  <si>
+    <t>请勿删除!</t>
+  </si>
+  <si>
+    <t>exists (  select 'x' from iam_role ir where ir.id = role_id and (ir.h_tenant_id = #{organizationId} or  exists (    select 'x' from iam_user iu where iu.id = member_id and iu.organization_id = #{organizationId})) )</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-9</t>
+  </si>
+  <si>
+    <t>PREFIX.ADMIN</t>
+  </si>
+  <si>
+    <t>PREFIX</t>
+  </si>
+  <si>
+    <t>平台治理服务数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_admin</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-10</t>
+  </si>
+  <si>
+    <t>PREFIX.HZERO_MESSAGE</t>
+  </si>
+  <si>
+    <t>消息服务数据库前缀</t>
+  </si>
+  <si>
+    <t>hzero_message</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rule-11</t>
+  </si>
+  <si>
     <t>PREFIX.HZERO_PLATFORM</t>
   </si>
   <si>
-    <t>PREFIX</t>
-  </si>
-  <si>
     <t>平台数据库前缀</t>
   </si>
   <si>
     <t>hzero_platform</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-9</t>
-  </si>
-  <si>
-    <t>HIAM.ASSIGNED_MEMBER_ROLE</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>平台预制角色已分配用户屏蔽</t>
-  </si>
-  <si>
-    <t>请勿删除!</t>
-  </si>
-  <si>
-    <t>exists (  select 'x' from iam_role ir where ir.id = role_id and (ir.h_tenant_id = #{organizationId} or  exists (    select 'x' from iam_user iu where iu.id = member_id and iu.organization_id = #{organizationId})) )</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-10</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_MESSAGE</t>
-  </si>
-  <si>
-    <t>消息服务数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_message</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-11</t>
-  </si>
-  <si>
-    <t>PREFIX.ADMIN</t>
-  </si>
-  <si>
-    <t>平台治理服务数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_admin</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-12</t>
-  </si>
-  <si>
-    <t>PREFIX.INTERFACE</t>
-  </si>
-  <si>
-    <t>接口平台数据库前缀</t>
-  </si>
-  <si>
-    <t>hzero_interface</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rule-13</t>
-  </si>
-  <si>
-    <t>PREFIX.HZERO_RULE_ENGINE</t>
-  </si>
-  <si>
-    <t>规则引擎服务前缀</t>
-  </si>
-  <si>
-    <t>hzero_rule_engine</t>
-  </si>
-  <si>
     <t>屏蔽范围</t>
   </si>
   <si>
@@ -2148,337 +2139,313 @@
     <t>#service_name</t>
   </si>
   <si>
+    <t>hpfm_permission_range-14</t>
+  </si>
+  <si>
+    <t>hpfm_company</t>
+  </si>
+  <si>
+    <t>hpfm_permission_range-15</t>
+  </si>
+  <si>
+    <t>hpfm_group</t>
+  </si>
+  <si>
     <t>hpfm_permission_range-16</t>
   </si>
   <si>
-    <t>hpfm_company</t>
+    <t>hpfm_tenant</t>
   </si>
   <si>
     <t>hpfm_permission_range-17</t>
   </si>
   <si>
-    <t>hpfm_group</t>
+    <t>iam_role</t>
   </si>
   <si>
     <t>hpfm_permission_range-18</t>
   </si>
   <si>
-    <t>hpfm_tenant</t>
+    <t>iam_user</t>
   </si>
   <si>
     <t>hpfm_permission_range-19</t>
   </si>
   <si>
-    <t>iam_role</t>
+    <t>oauth_client</t>
   </si>
   <si>
     <t>hpfm_permission_range-20</t>
   </si>
   <si>
-    <t>iam_user</t>
+    <t>hpfm_datasource</t>
   </si>
   <si>
     <t>hpfm_permission_range-21</t>
   </si>
   <si>
-    <t>oauth_client</t>
+    <t>hpfm_rule_script</t>
   </si>
   <si>
     <t>hpfm_permission_range-22</t>
   </si>
   <si>
-    <t>hpfm_datasource</t>
+    <t>hiam_tenant_access</t>
   </si>
   <si>
     <t>hpfm_permission_range-23</t>
   </si>
   <si>
-    <t>hpfm_rule_script</t>
+    <t>iam_member_role</t>
+  </si>
+  <si>
+    <t>org.hzero.iam.infra.mapper.HiamUserMapper.selectRoleUsers</t>
   </si>
   <si>
     <t>hpfm_permission_range-24</t>
   </si>
   <si>
-    <t>hiam_tenant_access</t>
+    <t>hmsg_message_template</t>
   </si>
   <si>
     <t>hpfm_permission_range-25</t>
   </si>
   <si>
-    <t>iam_member_role</t>
-  </si>
-  <si>
-    <t>org.hzero.iam.infra.mapper.HiamUserMapper.selectRoleUsers</t>
+    <t>hiam_role_auth_data</t>
   </si>
   <si>
     <t>hpfm_permission_range-26</t>
   </si>
   <si>
-    <t>hmsg_message_template</t>
+    <t>hiam_role_auth_data_line</t>
   </si>
   <si>
     <t>hpfm_permission_range-27</t>
   </si>
   <si>
-    <t>hpfm_server</t>
+    <t>hiam_role_authority_line</t>
   </si>
   <si>
     <t>hpfm_permission_range-28</t>
   </si>
   <si>
-    <t>hpfm_server_cluster</t>
+    <t>hiam_user_authority</t>
   </si>
   <si>
     <t>hpfm_permission_range-29</t>
   </si>
   <si>
-    <t>hiam_role_auth_data</t>
+    <t>hiam_user_authority_line</t>
   </si>
   <si>
     <t>hpfm_permission_range-30</t>
   </si>
   <si>
-    <t>hiam_role_auth_data_line</t>
+    <t>iam_permission</t>
   </si>
   <si>
     <t>hpfm_permission_range-31</t>
   </si>
   <si>
-    <t>hiam_role_authority_line</t>
+    <t>hiam_doc_type</t>
+  </si>
+  <si>
+    <t>请勿删除</t>
   </si>
   <si>
     <t>hpfm_permission_range-32</t>
   </si>
   <si>
-    <t>hiam_user_authority</t>
+    <t>hpfm_tenant_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-33</t>
   </si>
   <si>
-    <t>hiam_user_authority_line</t>
+    <t>hmsg_email_server</t>
   </si>
   <si>
     <t>hpfm_permission_range-34</t>
   </si>
   <si>
-    <t>iam_permission</t>
+    <t>hpfm_uom</t>
   </si>
   <si>
     <t>hpfm_permission_range-35</t>
   </si>
   <si>
-    <t>hiam_doc_type</t>
-  </si>
-  <si>
-    <t>请勿删除</t>
+    <t>hpfm_employee</t>
   </si>
   <si>
     <t>hpfm_permission_range-36</t>
   </si>
   <si>
-    <t>hpfm_tenant_tl</t>
+    <t>hpfm_employee_assign</t>
   </si>
   <si>
     <t>hpfm_permission_range-37</t>
   </si>
   <si>
-    <t>hmsg_email_server</t>
+    <t>hpfm_employee_user</t>
   </si>
   <si>
     <t>hpfm_permission_range-38</t>
   </si>
   <si>
-    <t>hpfm_uom</t>
+    <t>hpfm_lov_value</t>
   </si>
   <si>
     <t>hpfm_permission_range-39</t>
   </si>
   <si>
-    <t>hpfm_employee</t>
+    <t>hpfm_lov_value_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-40</t>
   </si>
   <si>
-    <t>hpfm_employee_assign</t>
+    <t>hmsg_message</t>
   </si>
   <si>
     <t>hpfm_permission_range-41</t>
   </si>
   <si>
-    <t>hpfm_employee_user</t>
+    <t>hmsg_message_receiver</t>
   </si>
   <si>
     <t>hpfm_permission_range-42</t>
   </si>
   <si>
-    <t>hpfm_lov_value</t>
+    <t>hpfm_lov</t>
   </si>
   <si>
     <t>hpfm_permission_range-43</t>
   </si>
   <si>
-    <t>hpfm_lov_value_tl</t>
+    <t>fd_language</t>
   </si>
   <si>
     <t>hpfm_permission_range-44</t>
   </si>
   <si>
-    <t>hmsg_message</t>
+    <t>hiam_user_group_assign</t>
   </si>
   <si>
     <t>hpfm_permission_range-45</t>
   </si>
   <si>
-    <t>hmsg_message_receiver</t>
+    <t>hadm_service</t>
   </si>
   <si>
     <t>hpfm_permission_range-46</t>
   </si>
   <si>
-    <t>hpfm_lov</t>
+    <t>hiam_user_group</t>
   </si>
   <si>
     <t>hpfm_permission_range-47</t>
   </si>
   <si>
-    <t>fd_language</t>
+    <t>hpfm_unit</t>
   </si>
   <si>
     <t>hpfm_permission_range-48</t>
   </si>
   <si>
-    <t>hiam_user_group_assign</t>
+    <t>hpfm_lov_view_header</t>
   </si>
   <si>
     <t>hpfm_permission_range-49</t>
   </si>
   <si>
-    <t>hadm_service</t>
+    <t>hpfm_lov_view_header_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-50</t>
   </si>
   <si>
-    <t>hitf_interface_server</t>
-  </si>
-  <si>
-    <t>hzero-platform</t>
+    <t>hpfm_hr_sync_employee</t>
   </si>
   <si>
     <t>hpfm_permission_range-51</t>
   </si>
   <si>
-    <t>hiam_user_group</t>
-  </si>
-  <si>
     <t>hpfm_permission_range-52</t>
   </si>
   <si>
-    <t>hpfm_unit</t>
+    <t>hiam_doc_type_auth_dim</t>
   </si>
   <si>
     <t>hpfm_permission_range-53</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header</t>
+    <t>hiam_role_rel</t>
   </si>
   <si>
     <t>hpfm_permission_range-54</t>
   </si>
   <si>
-    <t>hpfm_lov_view_header_tl</t>
+    <t>hpfm_code_rule</t>
   </si>
   <si>
     <t>hpfm_permission_range-55</t>
   </si>
   <si>
-    <t>hpfm_hr_sync_employee</t>
+    <t>hmsg_template_server</t>
   </si>
   <si>
     <t>hpfm_permission_range-56</t>
   </si>
   <si>
+    <t>hmsg_receiver_type</t>
+  </si>
+  <si>
     <t>hpfm_permission_range-57</t>
   </si>
   <si>
-    <t>hiam_doc_type_auth_dim</t>
+    <t>iam_menu_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-58</t>
   </si>
   <si>
-    <t>hres_rule</t>
+    <t>iam_role_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-59</t>
   </si>
   <si>
-    <t>hiam_role_rel</t>
+    <t>iam_label</t>
   </si>
   <si>
     <t>hpfm_permission_range-60</t>
   </si>
   <si>
-    <t>hpfm_code_rule</t>
+    <t>hiam_label_rel</t>
   </si>
   <si>
     <t>hpfm_permission_range-61</t>
   </si>
   <si>
-    <t>hmsg_template_server</t>
+    <t>hpfm_financial_code</t>
   </si>
   <si>
     <t>hpfm_permission_range-62</t>
   </si>
   <si>
-    <t>hmsg_receiver_type</t>
+    <t>iam_permission_tl</t>
   </si>
   <si>
     <t>hpfm_permission_range-63</t>
   </si>
   <si>
-    <t>hpfm_country</t>
-  </si>
-  <si>
-    <t>由单据权限[COUNTRY]维度[MIJI]自动生成</t>
+    <t>iam_role_permission</t>
   </si>
   <si>
     <t>hpfm_permission_range-64</t>
   </si>
   <si>
-    <t>iam_menu_tl</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-65</t>
-  </si>
-  <si>
-    <t>iam_role_tl</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-66</t>
-  </si>
-  <si>
-    <t>iam_label</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-67</t>
-  </si>
-  <si>
-    <t>hiam_label_rel</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-68</t>
-  </si>
-  <si>
-    <t>hpfm_financial_code</t>
-  </si>
-  <si>
-    <t>hpfm_permission_range-69</t>
-  </si>
-  <si>
-    <t>iam_permission_tl</t>
+    <t>hpfm_lov_tl</t>
   </si>
   <si>
     <t>屏蔽范围规则关系</t>
@@ -2502,6 +2469,21 @@
     <t>tenant_id</t>
   </si>
   <si>
+    <t>hpfm_permission_rel-67</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-68</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-69</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-70</t>
+  </si>
+  <si>
+    <t>hpfm_permission_rel-71</t>
+  </si>
+  <si>
     <t>hpfm_permission_rel-72</t>
   </si>
   <si>
@@ -2638,30 +2620,6 @@
   </si>
   <si>
     <t>hpfm_permission_rel-117</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-118</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-119</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-120</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-121</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-122</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-123</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-124</t>
-  </si>
-  <si>
-    <t>hpfm_permission_rel-125</t>
   </si>
 </sst>
 </file>
@@ -3710,7 +3668,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3784,932 +3742,1160 @@
       <c r="N7" t="s">
         <v>63</v>
       </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
         <v>78</v>
       </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="O10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s" s="44">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s" s="45">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" t="s" s="46">
+        <v>94</v>
+      </c>
+      <c r="H13" t="s" s="47">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s" s="48">
+        <v>96</v>
+      </c>
+      <c r="K13" t="s" s="49">
+        <v>97</v>
+      </c>
+      <c r="L13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K13" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" t="s" s="44">
-        <v>94</v>
-      </c>
-      <c r="E15" t="s" s="45">
-        <v>95</v>
-      </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" t="s" s="46">
-        <v>97</v>
-      </c>
-      <c r="H15" t="s" s="47">
-        <v>98</v>
-      </c>
-      <c r="I15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" t="s" s="48">
-        <v>99</v>
-      </c>
-      <c r="K15" t="s" s="49">
-        <v>100</v>
+      <c r="J15" t="s">
+        <v>72</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="M15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L17" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="E19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L19" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="E20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M20" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21">
       <c r="E21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L21" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="H23" t="s">
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L23" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M23" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L25" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="E27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L27" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M27" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="E28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L28" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29">
       <c r="E29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L29" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30">
       <c r="E30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L30" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I31" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L31" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L32" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M32" t="s">
+        <v>74</v>
+      </c>
+      <c r="N32" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L33" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N33" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I34" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L34" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M34" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I35" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L35" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L36" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M36" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L37" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L38" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M38" t="s">
+        <v>74</v>
+      </c>
+      <c r="N38" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I39" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L39" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M39" t="s">
+        <v>74</v>
+      </c>
+      <c r="N39" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J40" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L40" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="E41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L41" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L42" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M42" t="s">
+        <v>74</v>
+      </c>
+      <c r="N42" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J43" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L43" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M43" t="s">
+        <v>74</v>
+      </c>
+      <c r="N43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="E44" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L44" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M44" t="s">
+        <v>74</v>
+      </c>
+      <c r="N44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="E45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I45" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J45" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L45" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M45" t="s">
+        <v>74</v>
+      </c>
+      <c r="N45" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="46">
       <c r="E46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I46" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J46" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L46" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M46" t="s">
+        <v>74</v>
+      </c>
+      <c r="N46" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47">
       <c r="E47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L47" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M47" t="s">
+        <v>74</v>
+      </c>
+      <c r="N47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="E48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>168</v>
-      </c>
-      <c r="I48" t="s">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="J48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L48" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M48" t="s">
+        <v>74</v>
+      </c>
+      <c r="N48" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="E49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>170</v>
-      </c>
-      <c r="I49" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="J49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L49" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M49" t="s">
+        <v>74</v>
+      </c>
+      <c r="N49" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50">
       <c r="E50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J50" t="s">
-        <v>69</v>
-      </c>
-      <c r="K50" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="L50" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M50" t="s">
+        <v>74</v>
+      </c>
+      <c r="N50" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="51">
@@ -4717,107 +4903,143 @@
         <v>174</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s">
-        <v>175</v>
-      </c>
-      <c r="I51" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="J51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L51" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M51" t="s">
+        <v>74</v>
+      </c>
+      <c r="N51" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
         <v>176</v>
       </c>
-      <c r="F52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" t="s">
-        <v>177</v>
-      </c>
       <c r="I52" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="J52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L52" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M52" t="s">
+        <v>74</v>
+      </c>
+      <c r="N52" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" t="s">
         <v>178</v>
       </c>
-      <c r="F53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" t="s">
-        <v>179</v>
-      </c>
       <c r="J53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L53" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M53" t="s">
+        <v>74</v>
+      </c>
+      <c r="N53" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="E54" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" t="s">
+        <v>72</v>
+      </c>
+      <c r="G54" t="s">
         <v>180</v>
       </c>
-      <c r="F54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" t="s">
-        <v>181</v>
+      <c r="I54" t="s">
+        <v>70</v>
       </c>
       <c r="J54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L54" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M54" t="s">
+        <v>74</v>
+      </c>
+      <c r="N54" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="E55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G55" t="s">
         <v>182</v>
       </c>
-      <c r="F55" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" t="s">
-        <v>183</v>
-      </c>
       <c r="J55" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L55" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M55" t="s">
+        <v>74</v>
+      </c>
+      <c r="N55" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="E56" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" t="s">
+        <v>72</v>
+      </c>
+      <c r="G56" t="s">
         <v>184</v>
       </c>
-      <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s">
-        <v>120</v>
-      </c>
       <c r="J56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L56" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M56" t="s">
+        <v>74</v>
+      </c>
+      <c r="N56" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="57">
@@ -4825,19 +5047,22 @@
         <v>185</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G57" t="s">
         <v>186</v>
       </c>
-      <c r="I57" t="s">
-        <v>142</v>
-      </c>
       <c r="J57" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L57" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M57" t="s">
+        <v>74</v>
+      </c>
+      <c r="N57" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="58">
@@ -4845,16 +5070,22 @@
         <v>187</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s">
         <v>188</v>
       </c>
       <c r="J58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L58" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M58" t="s">
+        <v>74</v>
+      </c>
+      <c r="N58" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="59">
@@ -4862,16 +5093,22 @@
         <v>189</v>
       </c>
       <c r="F59" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s">
         <v>190</v>
       </c>
       <c r="J59" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L59" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M59" t="s">
+        <v>74</v>
+      </c>
+      <c r="N59" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="60">
@@ -4879,19 +5116,22 @@
         <v>191</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G60" t="s">
         <v>192</v>
       </c>
-      <c r="I60" t="s">
-        <v>75</v>
-      </c>
       <c r="J60" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L60" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M60" t="s">
+        <v>74</v>
+      </c>
+      <c r="N60" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61">
@@ -4899,16 +5139,22 @@
         <v>193</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s">
         <v>194</v>
       </c>
       <c r="J61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L61" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M61" t="s">
+        <v>74</v>
+      </c>
+      <c r="N61" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="62">
@@ -4916,16 +5162,22 @@
         <v>195</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s">
         <v>196</v>
       </c>
       <c r="J62" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L62" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M62" t="s">
+        <v>74</v>
+      </c>
+      <c r="N62" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="63">
@@ -4933,1071 +5185,1253 @@
         <v>197</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
         <v>198</v>
       </c>
-      <c r="I63" t="s">
-        <v>199</v>
-      </c>
       <c r="J63" t="s">
-        <v>69</v>
-      </c>
-      <c r="K63" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="L63" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="M63" t="s">
+        <v>74</v>
+      </c>
+      <c r="N63" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="E64" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" t="s">
         <v>200</v>
       </c>
-      <c r="F64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="J64" t="s">
+        <v>72</v>
+      </c>
+      <c r="L64" t="s">
+        <v>73</v>
+      </c>
+      <c r="M64" t="s">
+        <v>74</v>
+      </c>
+      <c r="N64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" t="s">
         <v>201</v>
       </c>
-      <c r="J64" t="s">
-        <v>69</v>
-      </c>
-      <c r="L64" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="E65" t="s">
+      <c r="D66" t="s" s="50">
         <v>202</v>
       </c>
-      <c r="F65" t="s">
-        <v>69</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="E66" t="s" s="51">
         <v>203</v>
       </c>
-      <c r="J65" t="s">
-        <v>69</v>
-      </c>
-      <c r="L65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s" s="52">
         <v>204</v>
       </c>
-      <c r="F66" t="s">
-        <v>69</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="G66" t="s" s="53">
         <v>205</v>
       </c>
+      <c r="H66" t="s">
+        <v>206</v>
+      </c>
+      <c r="I66" t="s">
+        <v>207</v>
+      </c>
       <c r="J66" t="s">
-        <v>69</v>
-      </c>
-      <c r="L66" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="K66" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>206</v>
-      </c>
-      <c r="F67" t="s">
-        <v>69</v>
-      </c>
-      <c r="G67" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="F67">
+        <f>屏蔽规则!$E$14</f>
+      </c>
+      <c r="G67">
+        <f>屏蔽规则!$E$11</f>
+      </c>
+      <c r="H67" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67" t="s">
+        <v>72</v>
       </c>
       <c r="J67" t="s">
-        <v>69</v>
-      </c>
-      <c r="L67" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="K67" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>208</v>
-      </c>
-      <c r="F68" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" t="s">
         <v>209</v>
       </c>
+      <c r="F68">
+        <f>屏蔽规则!$E$15</f>
+      </c>
+      <c r="G68">
+        <f>屏蔽规则!$E$11</f>
+      </c>
+      <c r="H68" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" t="s">
+        <v>72</v>
+      </c>
       <c r="J68" t="s">
-        <v>69</v>
-      </c>
-      <c r="L68" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="K68" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="69">
       <c r="E69" t="s">
         <v>210</v>
       </c>
-      <c r="F69" t="s">
-        <v>69</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="F69">
+        <f>屏蔽规则!$E$16</f>
+      </c>
+      <c r="G69">
+        <f>屏蔽规则!$E$11</f>
+      </c>
+      <c r="H69" t="s">
+        <v>73</v>
+      </c>
+      <c r="I69" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="s">
         <v>211</v>
       </c>
-      <c r="J69" t="s">
-        <v>69</v>
-      </c>
-      <c r="L69" t="s">
-        <v>70</v>
+      <c r="F70">
+        <f>屏蔽规则!$E$17</f>
+      </c>
+      <c r="G70">
+        <f>屏蔽规则!$E$11</f>
+      </c>
+      <c r="H70" t="s">
+        <v>73</v>
+      </c>
+      <c r="I70" t="s">
+        <v>72</v>
+      </c>
+      <c r="J70" t="s">
+        <v>74</v>
+      </c>
+      <c r="K70" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>212</v>
       </c>
-      <c r="D71" t="s" s="50">
-        <v>213</v>
-      </c>
-      <c r="E71" t="s" s="51">
-        <v>214</v>
-      </c>
-      <c r="F71" t="s" s="52">
-        <v>215</v>
-      </c>
-      <c r="G71" t="s" s="53">
-        <v>216</v>
+      <c r="F71">
+        <f>屏蔽规则!$E$18</f>
+      </c>
+      <c r="G71">
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H71" t="s">
-        <v>217</v>
+        <v>73</v>
       </c>
       <c r="I71" t="s">
-        <v>218</v>
+        <v>72</v>
+      </c>
+      <c r="J71" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="E72" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F72">
-        <f>屏蔽规则!$E$16</f>
+        <f>屏蔽规则!$E$19</f>
       </c>
       <c r="G72">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I72" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J72" t="s">
+        <v>74</v>
+      </c>
+      <c r="K72" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F73">
-        <f>屏蔽规则!$E$17</f>
+        <f>屏蔽规则!$E$20</f>
       </c>
       <c r="G73">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I73" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J73" t="s">
+        <v>74</v>
+      </c>
+      <c r="K73" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F74">
-        <f>屏蔽规则!$E$18</f>
+        <f>屏蔽规则!$E$21</f>
       </c>
       <c r="G74">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I74" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J74" t="s">
+        <v>74</v>
+      </c>
+      <c r="K74" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="E75" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F75">
-        <f>屏蔽规则!$E$19</f>
+        <f>屏蔽规则!$E$22</f>
       </c>
       <c r="G75">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H75" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I75" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J75" t="s">
+        <v>74</v>
+      </c>
+      <c r="K75" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F76">
-        <f>屏蔽规则!$E$20</f>
+        <f>屏蔽规则!$E$23</f>
       </c>
       <c r="G76">
         <f>屏蔽规则!$E$8</f>
       </c>
       <c r="H76" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I76" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F77">
-        <f>屏蔽规则!$E$21</f>
+        <f>屏蔽规则!$E$24</f>
       </c>
       <c r="G77">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H77" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I77" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J77" t="s">
+        <v>74</v>
+      </c>
+      <c r="K77" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="78">
       <c r="E78" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F78">
-        <f>屏蔽规则!$E$22</f>
+        <f>屏蔽规则!$E$25</f>
       </c>
       <c r="G78">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H78" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I78" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J78" t="s">
+        <v>74</v>
+      </c>
+      <c r="K78" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F79">
-        <f>屏蔽规则!$E$23</f>
+        <f>屏蔽规则!$E$26</f>
       </c>
       <c r="G79">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H79" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I79" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K79" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F80">
-        <f>屏蔽规则!$E$24</f>
+        <f>屏蔽规则!$E$27</f>
       </c>
       <c r="G80">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H80" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I80" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J80" t="s">
+        <v>74</v>
+      </c>
+      <c r="K80" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="81">
       <c r="E81" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F81">
-        <f>屏蔽规则!$E$25</f>
+        <f>屏蔽规则!$E$28</f>
       </c>
       <c r="G81">
-        <f>屏蔽规则!$E$9</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H81" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I81" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J81" t="s">
+        <v>74</v>
+      </c>
+      <c r="K81" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F82">
-        <f>屏蔽规则!$E$26</f>
+        <f>屏蔽规则!$E$29</f>
       </c>
       <c r="G82">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I82" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J82" t="s">
+        <v>74</v>
+      </c>
+      <c r="K82" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F83">
-        <f>屏蔽规则!$E$27</f>
+        <f>屏蔽规则!$E$30</f>
       </c>
       <c r="G83">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H83" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I83" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J83" t="s">
+        <v>74</v>
+      </c>
+      <c r="K83" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="84">
       <c r="E84" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F84">
-        <f>屏蔽规则!$E$28</f>
+        <f>屏蔽规则!$E$31</f>
       </c>
       <c r="G84">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H84" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I84" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J84" t="s">
+        <v>74</v>
+      </c>
+      <c r="K84" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="85">
       <c r="E85" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F85">
-        <f>屏蔽规则!$E$29</f>
+        <f>屏蔽规则!$E$32</f>
       </c>
       <c r="G85">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H85" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I85" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J85" t="s">
+        <v>74</v>
+      </c>
+      <c r="K85" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="86">
       <c r="E86" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F86">
-        <f>屏蔽规则!$E$30</f>
+        <f>屏蔽规则!$E$33</f>
       </c>
       <c r="G86">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H86" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I86" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J86" t="s">
+        <v>74</v>
+      </c>
+      <c r="K86" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F87">
-        <f>屏蔽规则!$E$31</f>
+        <f>屏蔽规则!$E$34</f>
       </c>
       <c r="G87">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I87" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J87" t="s">
+        <v>74</v>
+      </c>
+      <c r="K87" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="88">
       <c r="E88" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F88">
-        <f>屏蔽规则!$E$32</f>
+        <f>屏蔽规则!$E$35</f>
       </c>
       <c r="G88">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I88" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J88" t="s">
+        <v>74</v>
+      </c>
+      <c r="K88" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F89">
-        <f>屏蔽规则!$E$33</f>
+        <f>屏蔽规则!$E$36</f>
       </c>
       <c r="G89">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H89" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I89" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J89" t="s">
+        <v>74</v>
+      </c>
+      <c r="K89" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F90">
-        <f>屏蔽规则!$E$34</f>
+        <f>屏蔽规则!$E$37</f>
       </c>
       <c r="G90">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H90" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I90" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J90" t="s">
+        <v>74</v>
+      </c>
+      <c r="K90" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="91">
       <c r="E91" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F91">
-        <f>屏蔽规则!$E$35</f>
+        <f>屏蔽规则!$E$38</f>
       </c>
       <c r="G91">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H91" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I91" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J91" t="s">
+        <v>74</v>
+      </c>
+      <c r="K91" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F92">
-        <f>屏蔽规则!$E$36</f>
+        <f>屏蔽规则!$E$39</f>
       </c>
       <c r="G92">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H92" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I92" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J92" t="s">
+        <v>74</v>
+      </c>
+      <c r="K92" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F93">
-        <f>屏蔽规则!$E$37</f>
+        <f>屏蔽规则!$E$40</f>
       </c>
       <c r="G93">
         <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H93" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I93" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J93" t="s">
+        <v>74</v>
+      </c>
+      <c r="K93" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="94">
       <c r="E94" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F94">
-        <f>屏蔽规则!$E$38</f>
+        <f>屏蔽规则!$E$41</f>
       </c>
       <c r="G94">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I94" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J94" t="s">
+        <v>74</v>
+      </c>
+      <c r="K94" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F95">
-        <f>屏蔽规则!$E$39</f>
+        <f>屏蔽规则!$E$42</f>
       </c>
       <c r="G95">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H95" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I95" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J95" t="s">
+        <v>74</v>
+      </c>
+      <c r="K95" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F96">
-        <f>屏蔽规则!$E$40</f>
+        <f>屏蔽规则!$E$43</f>
       </c>
       <c r="G96">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H96" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I96" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J96" t="s">
+        <v>74</v>
+      </c>
+      <c r="K96" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="97">
       <c r="E97" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F97">
-        <f>屏蔽规则!$E$41</f>
+        <f>屏蔽规则!$E$44</f>
       </c>
       <c r="G97">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H97" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I97" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J97" t="s">
+        <v>74</v>
+      </c>
+      <c r="K97" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F98">
-        <f>屏蔽规则!$E$42</f>
+        <f>屏蔽规则!$E$45</f>
       </c>
       <c r="G98">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$9</f>
       </c>
       <c r="H98" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I98" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J98" t="s">
+        <v>74</v>
+      </c>
+      <c r="K98" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F99">
-        <f>屏蔽规则!$E$43</f>
+        <f>屏蔽规则!$E$46</f>
       </c>
       <c r="G99">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H99" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I99" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J99" t="s">
+        <v>74</v>
+      </c>
+      <c r="K99" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="100">
       <c r="E100" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F100">
-        <f>屏蔽规则!$E$44</f>
+        <f>屏蔽规则!$E$47</f>
       </c>
       <c r="G100">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I100" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J100" t="s">
+        <v>74</v>
+      </c>
+      <c r="K100" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="101">
       <c r="E101" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F101">
-        <f>屏蔽规则!$E$45</f>
+        <f>屏蔽规则!$E$48</f>
       </c>
       <c r="G101">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I101" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J101" t="s">
+        <v>74</v>
+      </c>
+      <c r="K101" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="102">
       <c r="E102" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F102">
-        <f>屏蔽规则!$E$46</f>
+        <f>屏蔽规则!$E$49</f>
       </c>
       <c r="G102">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H102" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I102" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J102" t="s">
+        <v>74</v>
+      </c>
+      <c r="K102" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="103">
       <c r="E103" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F103">
-        <f>屏蔽规则!$E$47</f>
+        <f>屏蔽规则!$E$50</f>
       </c>
       <c r="G103">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H103" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I103" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J103" t="s">
+        <v>74</v>
+      </c>
+      <c r="K103" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F104">
-        <f>屏蔽规则!$E$48</f>
+        <f>屏蔽规则!$E$51</f>
       </c>
       <c r="G104">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H104" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I104" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J104" t="s">
+        <v>74</v>
+      </c>
+      <c r="K104" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="105">
       <c r="E105" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F105">
-        <f>屏蔽规则!$E$49</f>
+        <f>屏蔽规则!$E$52</f>
       </c>
       <c r="G105">
         <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H105" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I105" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J105" t="s">
+        <v>74</v>
+      </c>
+      <c r="K105" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="106">
       <c r="E106" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F106">
-        <f>屏蔽规则!$E$50</f>
+        <f>屏蔽规则!$E$53</f>
       </c>
       <c r="G106">
-        <f>屏蔽规则!$E$12</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H106" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I106" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J106" t="s">
+        <v>74</v>
+      </c>
+      <c r="K106" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="107">
       <c r="E107" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F107">
-        <f>屏蔽规则!$E$51</f>
+        <f>屏蔽规则!$E$54</f>
       </c>
       <c r="G107">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H107" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I107" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J107" t="s">
+        <v>74</v>
+      </c>
+      <c r="K107" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="108">
       <c r="E108" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F108">
-        <f>屏蔽规则!$E$52</f>
+        <f>屏蔽规则!$E$55</f>
       </c>
       <c r="G108">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H108" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I108" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J108" t="s">
+        <v>74</v>
+      </c>
+      <c r="K108" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="109">
       <c r="E109" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F109">
-        <f>屏蔽规则!$E$53</f>
+        <f>屏蔽规则!$E$56</f>
       </c>
       <c r="G109">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$10</f>
       </c>
       <c r="H109" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I109" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J109" t="s">
+        <v>74</v>
+      </c>
+      <c r="K109" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="110">
       <c r="E110" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F110">
-        <f>屏蔽规则!$E$54</f>
+        <f>屏蔽规则!$E$57</f>
       </c>
       <c r="G110">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I110" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J110" t="s">
+        <v>74</v>
+      </c>
+      <c r="K110" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="111">
       <c r="E111" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F111">
-        <f>屏蔽规则!$E$55</f>
+        <f>屏蔽规则!$E$58</f>
       </c>
       <c r="G111">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H111" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I111" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J111" t="s">
+        <v>74</v>
+      </c>
+      <c r="K111" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="112">
       <c r="E112" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F112">
-        <f>屏蔽规则!$E$56</f>
+        <f>屏蔽规则!$E$59</f>
       </c>
       <c r="G112">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I112" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J112" t="s">
+        <v>74</v>
+      </c>
+      <c r="K112" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="113">
       <c r="E113" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F113">
-        <f>屏蔽规则!$E$57</f>
+        <f>屏蔽规则!$E$60</f>
       </c>
       <c r="G113">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H113" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I113" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J113" t="s">
+        <v>74</v>
+      </c>
+      <c r="K113" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="114">
       <c r="E114" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F114">
-        <f>屏蔽规则!$E$58</f>
+        <f>屏蔽规则!$E$61</f>
       </c>
       <c r="G114">
-        <f>屏蔽规则!$E$13</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H114" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I114" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J114" t="s">
+        <v>74</v>
+      </c>
+      <c r="K114" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="115">
       <c r="E115" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F115">
-        <f>屏蔽规则!$E$59</f>
+        <f>屏蔽规则!$E$62</f>
       </c>
       <c r="G115">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H115" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I115" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J115" t="s">
+        <v>74</v>
+      </c>
+      <c r="K115" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="116">
       <c r="E116" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F116">
-        <f>屏蔽规则!$E$60</f>
+        <f>屏蔽规则!$E$63</f>
       </c>
       <c r="G116">
-        <f>屏蔽规则!$E$8</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H116" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I116" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J116" t="s">
+        <v>74</v>
+      </c>
+      <c r="K116" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="117">
       <c r="E117" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F117">
-        <f>屏蔽规则!$E$61</f>
+        <f>屏蔽规则!$E$64</f>
       </c>
       <c r="G117">
-        <f>屏蔽规则!$E$10</f>
+        <f>屏蔽规则!$E$11</f>
       </c>
       <c r="H117" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I117" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="E118" t="s">
-        <v>265</v>
-      </c>
-      <c r="F118">
-        <f>屏蔽规则!$E$62</f>
-      </c>
-      <c r="G118">
-        <f>屏蔽规则!$E$10</f>
-      </c>
-      <c r="H118" t="s">
-        <v>70</v>
-      </c>
-      <c r="I118" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="E119" t="s">
-        <v>266</v>
-      </c>
-      <c r="F119">
-        <f>屏蔽规则!$E$63</f>
-      </c>
-      <c r="G119">
-        <f>屏蔽规则!$E$8</f>
-      </c>
-      <c r="H119" t="s">
-        <v>70</v>
-      </c>
-      <c r="I119" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="E120" t="s">
-        <v>267</v>
-      </c>
-      <c r="F120">
-        <f>屏蔽规则!$E$64</f>
-      </c>
-      <c r="G120">
-        <f>屏蔽规则!$E$8</f>
-      </c>
-      <c r="H120" t="s">
-        <v>70</v>
-      </c>
-      <c r="I120" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="E121" t="s">
-        <v>268</v>
-      </c>
-      <c r="F121">
-        <f>屏蔽规则!$E$65</f>
-      </c>
-      <c r="G121">
-        <f>屏蔽规则!$E$8</f>
-      </c>
-      <c r="H121" t="s">
-        <v>70</v>
-      </c>
-      <c r="I121" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="E122" t="s">
-        <v>269</v>
-      </c>
-      <c r="F122">
-        <f>屏蔽规则!$E$66</f>
-      </c>
-      <c r="G122">
-        <f>屏蔽规则!$E$8</f>
-      </c>
-      <c r="H122" t="s">
-        <v>70</v>
-      </c>
-      <c r="I122" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="E123" t="s">
-        <v>270</v>
-      </c>
-      <c r="F123">
-        <f>屏蔽规则!$E$67</f>
-      </c>
-      <c r="G123">
-        <f>屏蔽规则!$E$8</f>
-      </c>
-      <c r="H123" t="s">
-        <v>70</v>
-      </c>
-      <c r="I123" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="E124" t="s">
-        <v>271</v>
-      </c>
-      <c r="F124">
-        <f>屏蔽规则!$E$68</f>
-      </c>
-      <c r="G124">
-        <f>屏蔽规则!$E$8</f>
-      </c>
-      <c r="H124" t="s">
-        <v>70</v>
-      </c>
-      <c r="I124" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="E125" t="s">
-        <v>272</v>
-      </c>
-      <c r="F125">
-        <f>屏蔽规则!$E$69</f>
-      </c>
-      <c r="G125">
-        <f>屏蔽规则!$E$8</f>
-      </c>
-      <c r="H125" t="s">
-        <v>70</v>
-      </c>
-      <c r="I125" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J117" t="s">
+        <v>74</v>
+      </c>
+      <c r="K117" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
